--- a/edges.xlsx
+++ b/edges.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F328"/>
+  <dimension ref="A1:F325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,7 +474,7 @@
         <v>30.27</v>
       </c>
       <c r="E2" t="n">
-        <v>0.187</v>
+        <v>0.051</v>
       </c>
       <c r="F2" t="n">
         <v>0.5</v>
@@ -494,10 +494,10 @@
         <v>47.64</v>
       </c>
       <c r="E3" t="n">
-        <v>0.209</v>
+        <v>0.057</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
@@ -514,10 +514,10 @@
         <v>47.64</v>
       </c>
       <c r="E4" t="n">
-        <v>0.222</v>
+        <v>0.061</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5">
@@ -534,10 +534,10 @@
         <v>47.64</v>
       </c>
       <c r="E5" t="n">
-        <v>0.237</v>
+        <v>0.065</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6">
@@ -554,10 +554,10 @@
         <v>47.64</v>
       </c>
       <c r="E6" t="n">
-        <v>0.248</v>
+        <v>0.068</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7">
@@ -574,10 +574,10 @@
         <v>38.7</v>
       </c>
       <c r="E7" t="n">
-        <v>0.066</v>
+        <v>0.018</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="8">
@@ -594,10 +594,10 @@
         <v>38.7</v>
       </c>
       <c r="E8" t="n">
-        <v>0.057</v>
+        <v>0.016</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="9">
@@ -614,10 +614,10 @@
         <v>44.28</v>
       </c>
       <c r="E9" t="n">
-        <v>0.118</v>
+        <v>0.032</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="10">
@@ -634,10 +634,10 @@
         <v>44.28</v>
       </c>
       <c r="E10" t="n">
-        <v>0.106</v>
+        <v>0.029</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="11">
@@ -654,7 +654,7 @@
         <v>36.7</v>
       </c>
       <c r="E11" t="n">
-        <v>0.044</v>
+        <v>0.012</v>
       </c>
       <c r="F11" t="n">
         <v>0.25</v>
@@ -674,7 +674,7 @@
         <v>36.7</v>
       </c>
       <c r="E12" t="n">
-        <v>0.034</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="F12" t="n">
         <v>0.25</v>
@@ -694,7 +694,7 @@
         <v>36.7</v>
       </c>
       <c r="E13" t="n">
-        <v>0.021</v>
+        <v>0.006</v>
       </c>
       <c r="F13" t="n">
         <v>0.25</v>
@@ -714,10 +714,10 @@
         <v>32.38</v>
       </c>
       <c r="E14" t="n">
-        <v>0.301</v>
+        <v>0.083</v>
       </c>
       <c r="F14" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15">
@@ -734,10 +734,10 @@
         <v>32.38</v>
       </c>
       <c r="E15" t="n">
-        <v>0.309</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16">
@@ -754,7 +754,7 @@
         <v>41.58</v>
       </c>
       <c r="E16" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="F16" t="n">
         <v>0.25</v>
@@ -774,7 +774,7 @@
         <v>41.58</v>
       </c>
       <c r="E17" t="n">
-        <v>0.007</v>
+        <v>0.002</v>
       </c>
       <c r="F17" t="n">
         <v>0.25</v>
@@ -794,7 +794,7 @@
         <v>47.95</v>
       </c>
       <c r="E18" t="n">
-        <v>0.01</v>
+        <v>0.003</v>
       </c>
       <c r="F18" t="n">
         <v>0.25</v>
@@ -814,7 +814,7 @@
         <v>47.95</v>
       </c>
       <c r="E19" t="n">
-        <v>0.013</v>
+        <v>0.004</v>
       </c>
       <c r="F19" t="n">
         <v>0.25</v>
@@ -834,7 +834,7 @@
         <v>47.95</v>
       </c>
       <c r="E20" t="n">
-        <v>0.016</v>
+        <v>0.004</v>
       </c>
       <c r="F20" t="n">
         <v>0.25</v>
@@ -854,10 +854,10 @@
         <v>26.71</v>
       </c>
       <c r="E21" t="n">
-        <v>0.056</v>
+        <v>0.015</v>
       </c>
       <c r="F21" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="22">
@@ -874,10 +874,10 @@
         <v>26.71</v>
       </c>
       <c r="E22" t="n">
-        <v>0.059</v>
+        <v>0.016</v>
       </c>
       <c r="F22" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="23">
@@ -894,10 +894,10 @@
         <v>28.86</v>
       </c>
       <c r="E23" t="n">
-        <v>0.081</v>
+        <v>0.022</v>
       </c>
       <c r="F23" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="24">
@@ -914,10 +914,10 @@
         <v>28.86</v>
       </c>
       <c r="E24" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.023</v>
       </c>
       <c r="F24" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="25">
@@ -934,7 +934,7 @@
         <v>42.85</v>
       </c>
       <c r="E25" t="n">
-        <v>0.031</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="F25" t="n">
         <v>0.25</v>
@@ -954,7 +954,7 @@
         <v>34.54</v>
       </c>
       <c r="E26" t="n">
-        <v>0.029</v>
+        <v>0.008</v>
       </c>
       <c r="F26" t="n">
         <v>0.25</v>
@@ -974,7 +974,7 @@
         <v>34.54</v>
       </c>
       <c r="E27" t="n">
-        <v>0.027</v>
+        <v>0.007</v>
       </c>
       <c r="F27" t="n">
         <v>0.25</v>
@@ -994,7 +994,7 @@
         <v>34.54</v>
       </c>
       <c r="E28" t="n">
-        <v>0.023</v>
+        <v>0.006</v>
       </c>
       <c r="F28" t="n">
         <v>0.25</v>
@@ -1005,10 +1005,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>6</v>
+        <v>142</v>
       </c>
       <c r="C29" t="n">
-        <v>142</v>
+        <v>7</v>
       </c>
       <c r="D29" t="n">
         <v>31.5</v>
@@ -1025,16 +1025,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>142</v>
+        <v>7</v>
       </c>
       <c r="C30" t="n">
-        <v>7</v>
+        <v>143</v>
       </c>
       <c r="D30" t="n">
-        <v>31.5</v>
+        <v>31.32</v>
       </c>
       <c r="E30" t="n">
-        <v>0.004</v>
+        <v>0.011</v>
       </c>
       <c r="F30" t="n">
         <v>0.25</v>
@@ -1045,16 +1045,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>7</v>
+        <v>143</v>
       </c>
       <c r="C31" t="n">
-        <v>143</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>31.32</v>
       </c>
       <c r="E31" t="n">
-        <v>0.039</v>
+        <v>0.012</v>
       </c>
       <c r="F31" t="n">
         <v>0.25</v>
@@ -1065,16 +1065,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>143</v>
+        <v>8</v>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>144</v>
       </c>
       <c r="D32" t="n">
-        <v>31.32</v>
+        <v>43.57</v>
       </c>
       <c r="E32" t="n">
-        <v>0.045</v>
+        <v>0.005</v>
       </c>
       <c r="F32" t="n">
         <v>0.25</v>
@@ -1085,16 +1085,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>8</v>
+        <v>144</v>
       </c>
       <c r="C33" t="n">
-        <v>144</v>
+        <v>7</v>
       </c>
       <c r="D33" t="n">
         <v>43.57</v>
       </c>
       <c r="E33" t="n">
-        <v>0.017</v>
+        <v>0.008</v>
       </c>
       <c r="F33" t="n">
         <v>0.25</v>
@@ -1105,16 +1105,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C34" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D34" t="n">
-        <v>43.57</v>
+        <v>46.24</v>
       </c>
       <c r="E34" t="n">
-        <v>0.028</v>
+        <v>0.004</v>
       </c>
       <c r="F34" t="n">
         <v>0.25</v>
@@ -1125,16 +1125,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>145</v>
+        <v>10</v>
       </c>
       <c r="C35" t="n">
-        <v>9</v>
+        <v>146</v>
       </c>
       <c r="D35" t="n">
-        <v>46.24</v>
+        <v>34.06</v>
       </c>
       <c r="E35" t="n">
-        <v>0.015</v>
+        <v>0.007</v>
       </c>
       <c r="F35" t="n">
         <v>0.25</v>
@@ -1145,16 +1145,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="C36" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D36" t="n">
         <v>34.06</v>
       </c>
       <c r="E36" t="n">
-        <v>0.025</v>
+        <v>0.008</v>
       </c>
       <c r="F36" t="n">
         <v>0.25</v>
@@ -1165,16 +1165,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C37" t="n">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="D37" t="n">
         <v>34.06</v>
       </c>
       <c r="E37" t="n">
-        <v>0.029</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="F37" t="n">
         <v>0.25</v>
@@ -1185,16 +1185,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C38" t="n">
-        <v>11</v>
+        <v>149</v>
       </c>
       <c r="D38" t="n">
-        <v>34.06</v>
+        <v>47.06</v>
       </c>
       <c r="E38" t="n">
-        <v>0.033</v>
+        <v>0.003</v>
       </c>
       <c r="F38" t="n">
         <v>0.25</v>
@@ -1205,16 +1205,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C39" t="n">
-        <v>149</v>
+        <v>17</v>
       </c>
       <c r="D39" t="n">
         <v>47.06</v>
       </c>
       <c r="E39" t="n">
-        <v>0.012</v>
+        <v>0.007</v>
       </c>
       <c r="F39" t="n">
         <v>0.25</v>
@@ -1225,16 +1225,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="C40" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D40" t="n">
-        <v>47.06</v>
+        <v>40.18</v>
       </c>
       <c r="E40" t="n">
-        <v>0.026</v>
+        <v>0.016</v>
       </c>
       <c r="F40" t="n">
         <v>0.25</v>
@@ -1245,19 +1245,19 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C41" t="n">
-        <v>11</v>
+        <v>150</v>
       </c>
       <c r="D41" t="n">
-        <v>40.18</v>
+        <v>32.54</v>
       </c>
       <c r="E41" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="F41" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="42">
@@ -1265,19 +1265,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="C42" t="n">
-        <v>150</v>
+        <v>21</v>
       </c>
       <c r="D42" t="n">
         <v>32.54</v>
       </c>
       <c r="E42" t="n">
-        <v>0.146</v>
+        <v>0.041</v>
       </c>
       <c r="F42" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="43">
@@ -1285,19 +1285,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C43" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D43" t="n">
-        <v>32.54</v>
+        <v>31.9</v>
       </c>
       <c r="E43" t="n">
-        <v>0.151</v>
+        <v>0.003</v>
       </c>
       <c r="F43" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="44">
@@ -1305,16 +1305,16 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>151</v>
+        <v>24</v>
       </c>
       <c r="C44" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D44" t="n">
-        <v>31.9</v>
+        <v>36.94</v>
       </c>
       <c r="E44" t="n">
-        <v>0.01</v>
+        <v>0.004</v>
       </c>
       <c r="F44" t="n">
         <v>0.25</v>
@@ -1325,16 +1325,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="C45" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D45" t="n">
-        <v>36.94</v>
+        <v>45.82</v>
       </c>
       <c r="E45" t="n">
-        <v>0.015</v>
+        <v>0.01</v>
       </c>
       <c r="F45" t="n">
         <v>0.25</v>
@@ -1345,16 +1345,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
+        <v>19</v>
+      </c>
+      <c r="C46" t="n">
         <v>152</v>
-      </c>
-      <c r="C46" t="n">
-        <v>16</v>
       </c>
       <c r="D46" t="n">
         <v>45.82</v>
       </c>
       <c r="E46" t="n">
-        <v>0.038</v>
+        <v>0.008</v>
       </c>
       <c r="F46" t="n">
         <v>0.25</v>
@@ -1365,19 +1365,19 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C47" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D47" t="n">
-        <v>45.82</v>
+        <v>32.06</v>
       </c>
       <c r="E47" t="n">
-        <v>0.029</v>
+        <v>0.096</v>
       </c>
       <c r="F47" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="48">
@@ -1385,19 +1385,19 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>16</v>
+        <v>153</v>
       </c>
       <c r="C48" t="n">
-        <v>153</v>
+        <v>20</v>
       </c>
       <c r="D48" t="n">
         <v>32.06</v>
       </c>
       <c r="E48" t="n">
-        <v>0.352</v>
+        <v>0.098</v>
       </c>
       <c r="F48" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="49">
@@ -1405,19 +1405,19 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>153</v>
+        <v>17</v>
       </c>
       <c r="C49" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D49" t="n">
-        <v>32.06</v>
+        <v>47.83</v>
       </c>
       <c r="E49" t="n">
-        <v>0.356</v>
+        <v>0.013</v>
       </c>
       <c r="F49" t="n">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="50">
@@ -1425,19 +1425,19 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>17</v>
+        <v>154</v>
       </c>
       <c r="C50" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D50" t="n">
-        <v>47.83</v>
+        <v>39.9</v>
       </c>
       <c r="E50" t="n">
-        <v>0.053</v>
+        <v>0.002</v>
       </c>
       <c r="F50" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="51">
@@ -1445,16 +1445,16 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C51" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D51" t="n">
-        <v>39.9</v>
+        <v>29.1</v>
       </c>
       <c r="E51" t="n">
-        <v>0.008</v>
+        <v>0.002</v>
       </c>
       <c r="F51" t="n">
         <v>0.25</v>
@@ -1465,16 +1465,16 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
+        <v>22</v>
+      </c>
+      <c r="C52" t="n">
         <v>155</v>
-      </c>
-      <c r="C52" t="n">
-        <v>20</v>
       </c>
       <c r="D52" t="n">
         <v>29.1</v>
       </c>
       <c r="E52" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.002</v>
       </c>
       <c r="F52" t="n">
         <v>0.25</v>
@@ -1485,19 +1485,19 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C53" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D53" t="n">
-        <v>29.1</v>
+        <v>29.6</v>
       </c>
       <c r="E53" t="n">
-        <v>0.006</v>
+        <v>0.102</v>
       </c>
       <c r="F53" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="54">
@@ -1505,19 +1505,19 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>20</v>
+        <v>156</v>
       </c>
       <c r="C54" t="n">
-        <v>156</v>
+        <v>23</v>
       </c>
       <c r="D54" t="n">
         <v>29.6</v>
       </c>
       <c r="E54" t="n">
-        <v>0.371</v>
+        <v>0.104</v>
       </c>
       <c r="F54" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="55">
@@ -1525,19 +1525,19 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>156</v>
+        <v>23</v>
       </c>
       <c r="C55" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D55" t="n">
-        <v>29.6</v>
+        <v>44.69</v>
       </c>
       <c r="E55" t="n">
-        <v>0.378</v>
+        <v>0.11</v>
       </c>
       <c r="F55" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="56">
@@ -1545,19 +1545,19 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>23</v>
+        <v>157</v>
       </c>
       <c r="C56" t="n">
         <v>21</v>
       </c>
       <c r="D56" t="n">
-        <v>44.69</v>
+        <v>46.01</v>
       </c>
       <c r="E56" t="n">
-        <v>0.4</v>
+        <v>0.445</v>
       </c>
       <c r="F56" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -1565,19 +1565,19 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
+        <v>158</v>
+      </c>
+      <c r="C57" t="n">
         <v>157</v>
-      </c>
-      <c r="C57" t="n">
-        <v>21</v>
       </c>
       <c r="D57" t="n">
         <v>46.01</v>
       </c>
       <c r="E57" t="n">
-        <v>1.618</v>
+        <v>0.442</v>
       </c>
       <c r="F57" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -1585,19 +1585,19 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
+        <v>159</v>
+      </c>
+      <c r="C58" t="n">
         <v>158</v>
-      </c>
-      <c r="C58" t="n">
-        <v>157</v>
       </c>
       <c r="D58" t="n">
         <v>46.01</v>
       </c>
       <c r="E58" t="n">
-        <v>1.607</v>
+        <v>0.438</v>
       </c>
       <c r="F58" t="n">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="59">
@@ -1605,19 +1605,19 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
+        <v>160</v>
+      </c>
+      <c r="C59" t="n">
         <v>159</v>
-      </c>
-      <c r="C59" t="n">
-        <v>158</v>
       </c>
       <c r="D59" t="n">
         <v>46.01</v>
       </c>
       <c r="E59" t="n">
-        <v>1.592</v>
+        <v>0.436</v>
       </c>
       <c r="F59" t="n">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="60">
@@ -1625,19 +1625,19 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
+        <v>26</v>
+      </c>
+      <c r="C60" t="n">
         <v>160</v>
-      </c>
-      <c r="C60" t="n">
-        <v>159</v>
       </c>
       <c r="D60" t="n">
         <v>46.01</v>
       </c>
       <c r="E60" t="n">
-        <v>1.584</v>
+        <v>0.434</v>
       </c>
       <c r="F60" t="n">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="61">
@@ -1645,19 +1645,19 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>26</v>
+        <v>161</v>
       </c>
       <c r="C61" t="n">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="D61" t="n">
-        <v>46.01</v>
+        <v>27.76</v>
       </c>
       <c r="E61" t="n">
-        <v>1.577</v>
+        <v>0.002</v>
       </c>
       <c r="F61" t="n">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="62">
@@ -1665,16 +1665,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C62" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D62" t="n">
-        <v>27.76</v>
+        <v>30.33</v>
       </c>
       <c r="E62" t="n">
-        <v>0.008</v>
+        <v>0.005</v>
       </c>
       <c r="F62" t="n">
         <v>0.25</v>
@@ -1685,16 +1685,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
+        <v>25</v>
+      </c>
+      <c r="C63" t="n">
         <v>162</v>
-      </c>
-      <c r="C63" t="n">
-        <v>23</v>
       </c>
       <c r="D63" t="n">
         <v>30.33</v>
       </c>
       <c r="E63" t="n">
-        <v>0.017</v>
+        <v>0.004</v>
       </c>
       <c r="F63" t="n">
         <v>0.25</v>
@@ -1705,16 +1705,16 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C64" t="n">
-        <v>162</v>
+        <v>26</v>
       </c>
       <c r="D64" t="n">
-        <v>30.33</v>
+        <v>37.33</v>
       </c>
       <c r="E64" t="n">
-        <v>0.014</v>
+        <v>0.004</v>
       </c>
       <c r="F64" t="n">
         <v>0.25</v>
@@ -1725,19 +1725,19 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C65" t="n">
         <v>26</v>
       </c>
       <c r="D65" t="n">
-        <v>37.33</v>
+        <v>30.35</v>
       </c>
       <c r="E65" t="n">
-        <v>0.014</v>
+        <v>0.278</v>
       </c>
       <c r="F65" t="n">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="66">
@@ -1745,19 +1745,19 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>39</v>
+        <v>163</v>
       </c>
       <c r="C66" t="n">
         <v>26</v>
       </c>
       <c r="D66" t="n">
-        <v>30.35</v>
+        <v>42.21</v>
       </c>
       <c r="E66" t="n">
-        <v>1.012</v>
+        <v>0.211</v>
       </c>
       <c r="F66" t="n">
-        <v>1.25</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="67">
@@ -1765,19 +1765,19 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
+        <v>164</v>
+      </c>
+      <c r="C67" t="n">
         <v>163</v>
-      </c>
-      <c r="C67" t="n">
-        <v>26</v>
       </c>
       <c r="D67" t="n">
         <v>42.21</v>
       </c>
       <c r="E67" t="n">
-        <v>0.545</v>
+        <v>0.212</v>
       </c>
       <c r="F67" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="68">
@@ -1785,19 +1785,19 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
+        <v>48</v>
+      </c>
+      <c r="C68" t="n">
         <v>164</v>
-      </c>
-      <c r="C68" t="n">
-        <v>163</v>
       </c>
       <c r="D68" t="n">
         <v>42.21</v>
       </c>
       <c r="E68" t="n">
-        <v>0.542</v>
+        <v>0.213</v>
       </c>
       <c r="F68" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="69">
@@ -1805,16 +1805,16 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>48</v>
+        <v>165</v>
       </c>
       <c r="C69" t="n">
-        <v>164</v>
+        <v>27</v>
       </c>
       <c r="D69" t="n">
-        <v>42.21</v>
+        <v>42.92</v>
       </c>
       <c r="E69" t="n">
-        <v>0.537</v>
+        <v>0.617</v>
       </c>
       <c r="F69" t="n">
         <v>1</v>
@@ -1825,19 +1825,19 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
+        <v>166</v>
+      </c>
+      <c r="C70" t="n">
         <v>165</v>
-      </c>
-      <c r="C70" t="n">
-        <v>27</v>
       </c>
       <c r="D70" t="n">
         <v>42.92</v>
       </c>
       <c r="E70" t="n">
-        <v>2.245</v>
+        <v>0.612</v>
       </c>
       <c r="F70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -1845,19 +1845,19 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
+        <v>167</v>
+      </c>
+      <c r="C71" t="n">
         <v>166</v>
-      </c>
-      <c r="C71" t="n">
-        <v>165</v>
       </c>
       <c r="D71" t="n">
         <v>42.92</v>
       </c>
       <c r="E71" t="n">
-        <v>2.224</v>
+        <v>0.607</v>
       </c>
       <c r="F71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -1865,19 +1865,19 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
+        <v>168</v>
+      </c>
+      <c r="C72" t="n">
         <v>167</v>
-      </c>
-      <c r="C72" t="n">
-        <v>166</v>
       </c>
       <c r="D72" t="n">
         <v>42.92</v>
       </c>
       <c r="E72" t="n">
-        <v>2.207</v>
+        <v>0.603</v>
       </c>
       <c r="F72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -1885,19 +1885,19 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
+        <v>169</v>
+      </c>
+      <c r="C73" t="n">
         <v>168</v>
-      </c>
-      <c r="C73" t="n">
-        <v>167</v>
       </c>
       <c r="D73" t="n">
         <v>42.92</v>
       </c>
       <c r="E73" t="n">
-        <v>2.193</v>
+        <v>0.6</v>
       </c>
       <c r="F73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -1905,19 +1905,19 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
+        <v>21</v>
+      </c>
+      <c r="C74" t="n">
         <v>169</v>
-      </c>
-      <c r="C74" t="n">
-        <v>168</v>
       </c>
       <c r="D74" t="n">
         <v>42.92</v>
       </c>
       <c r="E74" t="n">
-        <v>2.182</v>
+        <v>0.598</v>
       </c>
       <c r="F74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -1925,19 +1925,19 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C75" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D75" t="n">
-        <v>42.92</v>
+        <v>39.09</v>
       </c>
       <c r="E75" t="n">
-        <v>2.174</v>
+        <v>0.62</v>
       </c>
       <c r="F75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -1945,19 +1945,19 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>27</v>
+        <v>170</v>
       </c>
       <c r="C76" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D76" t="n">
         <v>39.09</v>
       </c>
       <c r="E76" t="n">
-        <v>2.256</v>
+        <v>0.624</v>
       </c>
       <c r="F76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -1965,19 +1965,19 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C77" t="n">
-        <v>171</v>
+        <v>28</v>
       </c>
       <c r="D77" t="n">
         <v>39.09</v>
       </c>
       <c r="E77" t="n">
-        <v>2.27</v>
+        <v>0.628</v>
       </c>
       <c r="F77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -1985,19 +1985,19 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>171</v>
+        <v>29</v>
       </c>
       <c r="C78" t="n">
-        <v>28</v>
+        <v>172</v>
       </c>
       <c r="D78" t="n">
-        <v>39.09</v>
+        <v>49.49</v>
       </c>
       <c r="E78" t="n">
-        <v>2.284</v>
+        <v>0.007</v>
       </c>
       <c r="F78" t="n">
-        <v>2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="79">
@@ -2005,16 +2005,16 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>29</v>
+        <v>172</v>
       </c>
       <c r="C79" t="n">
-        <v>172</v>
+        <v>30</v>
       </c>
       <c r="D79" t="n">
         <v>49.49</v>
       </c>
       <c r="E79" t="n">
-        <v>0.026</v>
+        <v>0.01</v>
       </c>
       <c r="F79" t="n">
         <v>0.25</v>
@@ -2025,16 +2025,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C80" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D80" t="n">
-        <v>49.49</v>
+        <v>37.44</v>
       </c>
       <c r="E80" t="n">
-        <v>0.038</v>
+        <v>0.002</v>
       </c>
       <c r="F80" t="n">
         <v>0.25</v>
@@ -2045,16 +2045,16 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
+        <v>174</v>
+      </c>
+      <c r="C81" t="n">
         <v>173</v>
-      </c>
-      <c r="C81" t="n">
-        <v>29</v>
       </c>
       <c r="D81" t="n">
         <v>37.44</v>
       </c>
       <c r="E81" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.001</v>
       </c>
       <c r="F81" t="n">
         <v>0.25</v>
@@ -2065,16 +2065,16 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>174</v>
+        <v>31</v>
       </c>
       <c r="C82" t="n">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="D82" t="n">
-        <v>37.44</v>
+        <v>45.59</v>
       </c>
       <c r="E82" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="F82" t="n">
         <v>0.25</v>
@@ -2085,16 +2085,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C83" t="n">
-        <v>30</v>
+        <v>175</v>
       </c>
       <c r="D83" t="n">
-        <v>45.59</v>
+        <v>27.18</v>
       </c>
       <c r="E83" t="n">
-        <v>0.005</v>
+        <v>0.015</v>
       </c>
       <c r="F83" t="n">
         <v>0.25</v>
@@ -2105,19 +2105,19 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>30</v>
+        <v>175</v>
       </c>
       <c r="C84" t="n">
-        <v>175</v>
+        <v>43</v>
       </c>
       <c r="D84" t="n">
         <v>27.18</v>
       </c>
       <c r="E84" t="n">
-        <v>0.056</v>
+        <v>0.018</v>
       </c>
       <c r="F84" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="85">
@@ -2125,19 +2125,19 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C85" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D85" t="n">
-        <v>27.18</v>
+        <v>29.98</v>
       </c>
       <c r="E85" t="n">
-        <v>0.067</v>
+        <v>0.002</v>
       </c>
       <c r="F85" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="86">
@@ -2145,16 +2145,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>176</v>
+        <v>32</v>
       </c>
       <c r="C86" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D86" t="n">
-        <v>29.98</v>
+        <v>35.16</v>
       </c>
       <c r="E86" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
       <c r="F86" t="n">
         <v>0.25</v>
@@ -2165,16 +2165,16 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>32</v>
+        <v>177</v>
       </c>
       <c r="C87" t="n">
         <v>33</v>
       </c>
       <c r="D87" t="n">
-        <v>35.16</v>
+        <v>30.64</v>
       </c>
       <c r="E87" t="n">
-        <v>0.008</v>
+        <v>0.002</v>
       </c>
       <c r="F87" t="n">
         <v>0.25</v>
@@ -2185,16 +2185,16 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>33</v>
+        <v>177</v>
       </c>
       <c r="C88" t="n">
-        <v>177</v>
+        <v>34</v>
       </c>
       <c r="D88" t="n">
         <v>30.64</v>
       </c>
       <c r="E88" t="n">
-        <v>0.006</v>
+        <v>0.001</v>
       </c>
       <c r="F88" t="n">
         <v>0.25</v>
@@ -2205,16 +2205,16 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>177</v>
+        <v>33</v>
       </c>
       <c r="C89" t="n">
-        <v>34</v>
+        <v>178</v>
       </c>
       <c r="D89" t="n">
-        <v>30.64</v>
+        <v>43.46</v>
       </c>
       <c r="E89" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="F89" t="n">
         <v>0.25</v>
@@ -2225,16 +2225,16 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>33</v>
+        <v>178</v>
       </c>
       <c r="C90" t="n">
-        <v>178</v>
+        <v>35</v>
       </c>
       <c r="D90" t="n">
         <v>43.46</v>
       </c>
       <c r="E90" t="n">
-        <v>0.014</v>
+        <v>0.005</v>
       </c>
       <c r="F90" t="n">
         <v>0.25</v>
@@ -2245,16 +2245,16 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>178</v>
+        <v>34</v>
       </c>
       <c r="C91" t="n">
-        <v>35</v>
+        <v>179</v>
       </c>
       <c r="D91" t="n">
-        <v>43.46</v>
+        <v>37.66</v>
       </c>
       <c r="E91" t="n">
-        <v>0.018</v>
+        <v>0.001</v>
       </c>
       <c r="F91" t="n">
         <v>0.25</v>
@@ -2265,16 +2265,16 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>34</v>
+        <v>179</v>
       </c>
       <c r="C92" t="n">
-        <v>179</v>
+        <v>45</v>
       </c>
       <c r="D92" t="n">
         <v>37.66</v>
       </c>
       <c r="E92" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
       <c r="F92" t="n">
         <v>0.25</v>
@@ -2285,19 +2285,19 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>179</v>
+        <v>44</v>
       </c>
       <c r="C93" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D93" t="n">
-        <v>37.66</v>
+        <v>45.86</v>
       </c>
       <c r="E93" t="n">
-        <v>0.008</v>
+        <v>0.259</v>
       </c>
       <c r="F93" t="n">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="94">
@@ -2305,19 +2305,19 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C94" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D94" t="n">
-        <v>45.86</v>
+        <v>33.37</v>
       </c>
       <c r="E94" t="n">
-        <v>0.9429999999999999</v>
+        <v>0.266</v>
       </c>
       <c r="F94" t="n">
-        <v>1.25</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="95">
@@ -2325,19 +2325,19 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C95" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D95" t="n">
-        <v>33.37</v>
+        <v>34.81</v>
       </c>
       <c r="E95" t="n">
-        <v>0.97</v>
+        <v>0.002</v>
       </c>
       <c r="F95" t="n">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="96">
@@ -2345,16 +2345,16 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C96" t="n">
-        <v>37</v>
+        <v>180</v>
       </c>
       <c r="D96" t="n">
-        <v>34.81</v>
+        <v>48.18</v>
       </c>
       <c r="E96" t="n">
-        <v>0.006</v>
+        <v>0.003</v>
       </c>
       <c r="F96" t="n">
         <v>0.25</v>
@@ -2365,16 +2365,16 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>37</v>
+        <v>180</v>
       </c>
       <c r="C97" t="n">
-        <v>180</v>
+        <v>38</v>
       </c>
       <c r="D97" t="n">
         <v>48.18</v>
       </c>
       <c r="E97" t="n">
-        <v>0.012</v>
+        <v>0.004</v>
       </c>
       <c r="F97" t="n">
         <v>0.25</v>
@@ -2385,16 +2385,16 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>180</v>
+        <v>37</v>
       </c>
       <c r="C98" t="n">
-        <v>38</v>
+        <v>181</v>
       </c>
       <c r="D98" t="n">
-        <v>48.18</v>
+        <v>38.1</v>
       </c>
       <c r="E98" t="n">
-        <v>0.015</v>
+        <v>0.002</v>
       </c>
       <c r="F98" t="n">
         <v>0.25</v>
@@ -2405,16 +2405,16 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="C99" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D99" t="n">
         <v>38.1</v>
       </c>
       <c r="E99" t="n">
-        <v>0.007</v>
+        <v>0.001</v>
       </c>
       <c r="F99" t="n">
         <v>0.25</v>
@@ -2425,16 +2425,16 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C100" t="n">
-        <v>182</v>
+        <v>39</v>
       </c>
       <c r="D100" t="n">
         <v>38.1</v>
       </c>
       <c r="E100" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="F100" t="n">
         <v>0.25</v>
@@ -2445,19 +2445,19 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>182</v>
+        <v>38</v>
       </c>
       <c r="C101" t="n">
         <v>39</v>
       </c>
       <c r="D101" t="n">
-        <v>38.1</v>
+        <v>48.24</v>
       </c>
       <c r="E101" t="n">
-        <v>0.006</v>
+        <v>0.276</v>
       </c>
       <c r="F101" t="n">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="102">
@@ -2465,19 +2465,19 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
+        <v>183</v>
+      </c>
+      <c r="C102" t="n">
         <v>38</v>
       </c>
-      <c r="C102" t="n">
-        <v>39</v>
-      </c>
       <c r="D102" t="n">
-        <v>48.24</v>
+        <v>27.84</v>
       </c>
       <c r="E102" t="n">
-        <v>1.004</v>
+        <v>0.001</v>
       </c>
       <c r="F102" t="n">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="103">
@@ -2485,16 +2485,16 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
+        <v>46</v>
+      </c>
+      <c r="C103" t="n">
         <v>183</v>
-      </c>
-      <c r="C103" t="n">
-        <v>38</v>
       </c>
       <c r="D103" t="n">
         <v>27.84</v>
       </c>
       <c r="E103" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F103" t="n">
         <v>0.25</v>
@@ -2505,19 +2505,19 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C104" t="n">
-        <v>183</v>
+        <v>38</v>
       </c>
       <c r="D104" t="n">
-        <v>27.84</v>
+        <v>44.96</v>
       </c>
       <c r="E104" t="n">
-        <v>0.003</v>
+        <v>0.27</v>
       </c>
       <c r="F104" t="n">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="105">
@@ -2525,19 +2525,19 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C105" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D105" t="n">
-        <v>44.96</v>
+        <v>48.77</v>
       </c>
       <c r="E105" t="n">
-        <v>0.983</v>
+        <v>0.002</v>
       </c>
       <c r="F105" t="n">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="106">
@@ -2545,16 +2545,16 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C106" t="n">
-        <v>41</v>
+        <v>184</v>
       </c>
       <c r="D106" t="n">
-        <v>48.77</v>
+        <v>32.83</v>
       </c>
       <c r="E106" t="n">
-        <v>0.006</v>
+        <v>0.004</v>
       </c>
       <c r="F106" t="n">
         <v>0.25</v>
@@ -2565,16 +2565,16 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>41</v>
+        <v>184</v>
       </c>
       <c r="C107" t="n">
-        <v>184</v>
+        <v>42</v>
       </c>
       <c r="D107" t="n">
         <v>32.83</v>
       </c>
       <c r="E107" t="n">
-        <v>0.015</v>
+        <v>0.005</v>
       </c>
       <c r="F107" t="n">
         <v>0.25</v>
@@ -2585,16 +2585,16 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C108" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D108" t="n">
-        <v>32.83</v>
+        <v>25.38</v>
       </c>
       <c r="E108" t="n">
-        <v>0.019</v>
+        <v>0.001</v>
       </c>
       <c r="F108" t="n">
         <v>0.25</v>
@@ -2605,16 +2605,16 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>185</v>
+        <v>42</v>
       </c>
       <c r="C109" t="n">
-        <v>49</v>
+        <v>186</v>
       </c>
       <c r="D109" t="n">
-        <v>25.38</v>
+        <v>30.27</v>
       </c>
       <c r="E109" t="n">
-        <v>0.004</v>
+        <v>0.007</v>
       </c>
       <c r="F109" t="n">
         <v>0.25</v>
@@ -2625,16 +2625,16 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>42</v>
+        <v>186</v>
       </c>
       <c r="C110" t="n">
-        <v>186</v>
+        <v>53</v>
       </c>
       <c r="D110" t="n">
         <v>30.27</v>
       </c>
       <c r="E110" t="n">
-        <v>0.024</v>
+        <v>0.008</v>
       </c>
       <c r="F110" t="n">
         <v>0.25</v>
@@ -2645,16 +2645,16 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="C111" t="n">
-        <v>53</v>
+        <v>187</v>
       </c>
       <c r="D111" t="n">
-        <v>30.27</v>
+        <v>40.13</v>
       </c>
       <c r="E111" t="n">
-        <v>0.029</v>
+        <v>0.022</v>
       </c>
       <c r="F111" t="n">
         <v>0.25</v>
@@ -2665,19 +2665,19 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>43</v>
+        <v>187</v>
       </c>
       <c r="C112" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D112" t="n">
         <v>40.13</v>
       </c>
       <c r="E112" t="n">
-        <v>0.081</v>
+        <v>0.024</v>
       </c>
       <c r="F112" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="113">
@@ -2685,19 +2685,19 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C113" t="n">
-        <v>188</v>
+        <v>44</v>
       </c>
       <c r="D113" t="n">
         <v>40.13</v>
       </c>
       <c r="E113" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.025</v>
       </c>
       <c r="F113" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="114">
@@ -2705,19 +2705,19 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C114" t="n">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D114" t="n">
-        <v>40.13</v>
+        <v>39.84</v>
       </c>
       <c r="E114" t="n">
-        <v>0.092</v>
+        <v>0.005</v>
       </c>
       <c r="F114" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="115">
@@ -2725,19 +2725,19 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C115" t="n">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D115" t="n">
-        <v>39.84</v>
+        <v>46.58</v>
       </c>
       <c r="E115" t="n">
-        <v>0.018</v>
+        <v>0.233</v>
       </c>
       <c r="F115" t="n">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="116">
@@ -2745,19 +2745,19 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
+        <v>57</v>
+      </c>
+      <c r="C116" t="n">
         <v>190</v>
-      </c>
-      <c r="C116" t="n">
-        <v>44</v>
       </c>
       <c r="D116" t="n">
         <v>46.58</v>
       </c>
       <c r="E116" t="n">
-        <v>0.846</v>
+        <v>0.229</v>
       </c>
       <c r="F116" t="n">
-        <v>1.25</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="117">
@@ -2765,19 +2765,19 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>57</v>
+        <v>191</v>
       </c>
       <c r="C117" t="n">
-        <v>190</v>
+        <v>46</v>
       </c>
       <c r="D117" t="n">
-        <v>46.58</v>
+        <v>28.26</v>
       </c>
       <c r="E117" t="n">
-        <v>0.835</v>
+        <v>0.003</v>
       </c>
       <c r="F117" t="n">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="118">
@@ -2785,16 +2785,16 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
+        <v>122</v>
+      </c>
+      <c r="C118" t="n">
         <v>191</v>
-      </c>
-      <c r="C118" t="n">
-        <v>46</v>
       </c>
       <c r="D118" t="n">
         <v>28.26</v>
       </c>
       <c r="E118" t="n">
-        <v>0.011</v>
+        <v>0.002</v>
       </c>
       <c r="F118" t="n">
         <v>0.25</v>
@@ -2805,16 +2805,16 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>122</v>
+        <v>46</v>
       </c>
       <c r="C119" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D119" t="n">
-        <v>28.26</v>
+        <v>38.94</v>
       </c>
       <c r="E119" t="n">
-        <v>0.006</v>
+        <v>0.004</v>
       </c>
       <c r="F119" t="n">
         <v>0.25</v>
@@ -2825,16 +2825,16 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>46</v>
+        <v>192</v>
       </c>
       <c r="C120" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D120" t="n">
         <v>38.94</v>
       </c>
       <c r="E120" t="n">
-        <v>0.013</v>
+        <v>0.005</v>
       </c>
       <c r="F120" t="n">
         <v>0.25</v>
@@ -2845,16 +2845,16 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C121" t="n">
-        <v>193</v>
+        <v>59</v>
       </c>
       <c r="D121" t="n">
         <v>38.94</v>
       </c>
       <c r="E121" t="n">
-        <v>0.017</v>
+        <v>0.006</v>
       </c>
       <c r="F121" t="n">
         <v>0.25</v>
@@ -2865,16 +2865,16 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C122" t="n">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="D122" t="n">
-        <v>38.94</v>
+        <v>25.64</v>
       </c>
       <c r="E122" t="n">
-        <v>0.021</v>
+        <v>0.004</v>
       </c>
       <c r="F122" t="n">
         <v>0.25</v>
@@ -2888,13 +2888,13 @@
         <v>194</v>
       </c>
       <c r="C123" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D123" t="n">
         <v>25.64</v>
       </c>
       <c r="E123" t="n">
-        <v>0.015</v>
+        <v>0.001</v>
       </c>
       <c r="F123" t="n">
         <v>0.25</v>
@@ -2905,13 +2905,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C124" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D124" t="n">
-        <v>25.64</v>
+        <v>47.12</v>
       </c>
       <c r="E124" t="n">
         <v>0.003</v>
@@ -2925,16 +2925,16 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
+        <v>50</v>
+      </c>
+      <c r="C125" t="n">
         <v>195</v>
-      </c>
-      <c r="C125" t="n">
-        <v>47</v>
       </c>
       <c r="D125" t="n">
         <v>47.12</v>
       </c>
       <c r="E125" t="n">
-        <v>0.011</v>
+        <v>0.002</v>
       </c>
       <c r="F125" t="n">
         <v>0.25</v>
@@ -2945,19 +2945,19 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C126" t="n">
-        <v>195</v>
+        <v>48</v>
       </c>
       <c r="D126" t="n">
-        <v>47.12</v>
+        <v>36.01</v>
       </c>
       <c r="E126" t="n">
-        <v>0.008</v>
+        <v>0.219</v>
       </c>
       <c r="F126" t="n">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="127">
@@ -2965,19 +2965,19 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>61</v>
+        <v>196</v>
       </c>
       <c r="C127" t="n">
         <v>48</v>
       </c>
       <c r="D127" t="n">
-        <v>36.01</v>
+        <v>39.35</v>
       </c>
       <c r="E127" t="n">
-        <v>0.797</v>
+        <v>0.001</v>
       </c>
       <c r="F127" t="n">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="128">
@@ -2985,16 +2985,16 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C128" t="n">
         <v>48</v>
       </c>
       <c r="D128" t="n">
-        <v>39.35</v>
+        <v>41.82</v>
       </c>
       <c r="E128" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="F128" t="n">
         <v>0.25</v>
@@ -3005,16 +3005,16 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C129" t="n">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="D129" t="n">
         <v>41.82</v>
       </c>
       <c r="E129" t="n">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
       <c r="F129" t="n">
         <v>0.25</v>
@@ -3025,16 +3025,16 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C130" t="n">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="D130" t="n">
-        <v>41.82</v>
+        <v>37.11</v>
       </c>
       <c r="E130" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
       <c r="F130" t="n">
         <v>0.25</v>
@@ -3045,16 +3045,16 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
+        <v>51</v>
+      </c>
+      <c r="C131" t="n">
         <v>199</v>
-      </c>
-      <c r="C131" t="n">
-        <v>49</v>
       </c>
       <c r="D131" t="n">
         <v>37.11</v>
       </c>
       <c r="E131" t="n">
-        <v>0.007</v>
+        <v>0.001</v>
       </c>
       <c r="F131" t="n">
         <v>0.25</v>
@@ -3065,16 +3065,16 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C132" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D132" t="n">
-        <v>37.11</v>
+        <v>43.18</v>
       </c>
       <c r="E132" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="F132" t="n">
         <v>0.25</v>
@@ -3085,16 +3085,16 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>49</v>
+        <v>200</v>
       </c>
       <c r="C133" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D133" t="n">
         <v>43.18</v>
       </c>
       <c r="E133" t="n">
-        <v>0.016</v>
+        <v>0.006</v>
       </c>
       <c r="F133" t="n">
         <v>0.25</v>
@@ -3105,16 +3105,16 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C134" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D134" t="n">
         <v>43.18</v>
       </c>
       <c r="E134" t="n">
-        <v>0.02</v>
+        <v>0.007</v>
       </c>
       <c r="F134" t="n">
         <v>0.25</v>
@@ -3125,19 +3125,19 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C135" t="n">
-        <v>202</v>
+        <v>52</v>
       </c>
       <c r="D135" t="n">
         <v>43.18</v>
       </c>
       <c r="E135" t="n">
-        <v>0.049</v>
+        <v>0.008</v>
       </c>
       <c r="F135" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="136">
@@ -3145,19 +3145,19 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C136" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D136" t="n">
-        <v>43.18</v>
+        <v>28.62</v>
       </c>
       <c r="E136" t="n">
-        <v>0.055</v>
+        <v>0.001</v>
       </c>
       <c r="F136" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="137">
@@ -3165,16 +3165,16 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
+        <v>51</v>
+      </c>
+      <c r="C137" t="n">
         <v>203</v>
-      </c>
-      <c r="C137" t="n">
-        <v>50</v>
       </c>
       <c r="D137" t="n">
         <v>28.62</v>
       </c>
       <c r="E137" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="F137" t="n">
         <v>0.25</v>
@@ -3185,16 +3185,16 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
+        <v>124</v>
+      </c>
+      <c r="C138" t="n">
         <v>51</v>
       </c>
-      <c r="C138" t="n">
-        <v>203</v>
-      </c>
       <c r="D138" t="n">
-        <v>28.62</v>
+        <v>30.75</v>
       </c>
       <c r="E138" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="F138" t="n">
         <v>0.25</v>
@@ -3205,16 +3205,16 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="C139" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D139" t="n">
-        <v>30.75</v>
+        <v>46.18</v>
       </c>
       <c r="E139" t="n">
-        <v>0.002</v>
+        <v>0.029</v>
       </c>
       <c r="F139" t="n">
         <v>0.25</v>
@@ -3225,16 +3225,16 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C140" t="n">
-        <v>52</v>
+        <v>204</v>
       </c>
       <c r="D140" t="n">
-        <v>46.18</v>
+        <v>38.62</v>
       </c>
       <c r="E140" t="n">
-        <v>0.106</v>
+        <v>0.056</v>
       </c>
       <c r="F140" t="n">
         <v>0.5</v>
@@ -3245,19 +3245,19 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>52</v>
+        <v>204</v>
       </c>
       <c r="C141" t="n">
-        <v>204</v>
+        <v>61</v>
       </c>
       <c r="D141" t="n">
         <v>38.62</v>
       </c>
       <c r="E141" t="n">
-        <v>0.206</v>
+        <v>0.058</v>
       </c>
       <c r="F141" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="142">
@@ -3265,19 +3265,19 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C142" t="n">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D142" t="n">
-        <v>38.62</v>
+        <v>47.94</v>
       </c>
       <c r="E142" t="n">
-        <v>0.213</v>
+        <v>0.001</v>
       </c>
       <c r="F142" t="n">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="143">
@@ -3285,16 +3285,16 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C143" t="n">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="D143" t="n">
         <v>47.94</v>
       </c>
       <c r="E143" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="F143" t="n">
         <v>0.25</v>
@@ -3305,16 +3305,16 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>206</v>
+        <v>53</v>
       </c>
       <c r="C144" t="n">
-        <v>63</v>
+        <v>207</v>
       </c>
       <c r="D144" t="n">
-        <v>47.94</v>
+        <v>41.06</v>
       </c>
       <c r="E144" t="n">
-        <v>0.005</v>
+        <v>0.018</v>
       </c>
       <c r="F144" t="n">
         <v>0.25</v>
@@ -3325,19 +3325,19 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>53</v>
+        <v>207</v>
       </c>
       <c r="C145" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D145" t="n">
         <v>41.06</v>
       </c>
       <c r="E145" t="n">
-        <v>0.067</v>
+        <v>0.02</v>
       </c>
       <c r="F145" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="146">
@@ -3345,19 +3345,19 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C146" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D146" t="n">
         <v>41.06</v>
       </c>
       <c r="E146" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.022</v>
       </c>
       <c r="F146" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="147">
@@ -3365,19 +3365,19 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C147" t="n">
-        <v>209</v>
+        <v>55</v>
       </c>
       <c r="D147" t="n">
         <v>41.06</v>
       </c>
       <c r="E147" t="n">
-        <v>0.082</v>
+        <v>0.026</v>
       </c>
       <c r="F147" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="148">
@@ -3385,19 +3385,19 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>209</v>
+        <v>54</v>
       </c>
       <c r="C148" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D148" t="n">
-        <v>41.06</v>
+        <v>47.72</v>
       </c>
       <c r="E148" t="n">
-        <v>0.094</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="F148" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="149">
@@ -3405,19 +3405,19 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>54</v>
+        <v>210</v>
       </c>
       <c r="C149" t="n">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D149" t="n">
-        <v>47.72</v>
+        <v>36.16</v>
       </c>
       <c r="E149" t="n">
-        <v>0.055</v>
+        <v>0.003</v>
       </c>
       <c r="F149" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="150">
@@ -3425,16 +3425,16 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>210</v>
+        <v>56</v>
       </c>
       <c r="C150" t="n">
-        <v>63</v>
+        <v>211</v>
       </c>
       <c r="D150" t="n">
-        <v>36.16</v>
+        <v>38.21</v>
       </c>
       <c r="E150" t="n">
-        <v>0.011</v>
+        <v>0.012</v>
       </c>
       <c r="F150" t="n">
         <v>0.25</v>
@@ -3445,19 +3445,19 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>56</v>
+        <v>211</v>
       </c>
       <c r="C151" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D151" t="n">
         <v>38.21</v>
       </c>
       <c r="E151" t="n">
-        <v>0.051</v>
+        <v>0.014</v>
       </c>
       <c r="F151" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="152">
@@ -3465,19 +3465,19 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C152" t="n">
-        <v>212</v>
+        <v>58</v>
       </c>
       <c r="D152" t="n">
         <v>38.21</v>
       </c>
       <c r="E152" t="n">
-        <v>0.05</v>
+        <v>0.016</v>
       </c>
       <c r="F152" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="153">
@@ -3485,19 +3485,19 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C153" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D153" t="n">
-        <v>38.21</v>
+        <v>42.88</v>
       </c>
       <c r="E153" t="n">
-        <v>0.057</v>
+        <v>0.013</v>
       </c>
       <c r="F153" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="154">
@@ -3505,19 +3505,19 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
+        <v>59</v>
+      </c>
+      <c r="C154" t="n">
         <v>213</v>
-      </c>
-      <c r="C154" t="n">
-        <v>57</v>
       </c>
       <c r="D154" t="n">
         <v>42.88</v>
       </c>
       <c r="E154" t="n">
-        <v>0.049</v>
+        <v>0.011</v>
       </c>
       <c r="F154" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="155">
@@ -3525,16 +3525,16 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C155" t="n">
-        <v>213</v>
+        <v>57</v>
       </c>
       <c r="D155" t="n">
-        <v>42.88</v>
+        <v>43.45</v>
       </c>
       <c r="E155" t="n">
-        <v>0.042</v>
+        <v>0.018</v>
       </c>
       <c r="F155" t="n">
         <v>0.25</v>
@@ -3545,19 +3545,19 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>58</v>
+        <v>214</v>
       </c>
       <c r="C156" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D156" t="n">
-        <v>43.45</v>
+        <v>27.01</v>
       </c>
       <c r="E156" t="n">
-        <v>0.066</v>
+        <v>0.005</v>
       </c>
       <c r="F156" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="157">
@@ -3565,16 +3565,16 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
+        <v>60</v>
+      </c>
+      <c r="C157" t="n">
         <v>214</v>
-      </c>
-      <c r="C157" t="n">
-        <v>59</v>
       </c>
       <c r="D157" t="n">
         <v>27.01</v>
       </c>
       <c r="E157" t="n">
-        <v>0.018</v>
+        <v>0.004</v>
       </c>
       <c r="F157" t="n">
         <v>0.25</v>
@@ -3585,16 +3585,16 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
+        <v>64</v>
+      </c>
+      <c r="C158" t="n">
         <v>60</v>
       </c>
-      <c r="C158" t="n">
-        <v>214</v>
-      </c>
       <c r="D158" t="n">
-        <v>27.01</v>
+        <v>42.38</v>
       </c>
       <c r="E158" t="n">
-        <v>0.014</v>
+        <v>0.001</v>
       </c>
       <c r="F158" t="n">
         <v>0.25</v>
@@ -3605,16 +3605,16 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>64</v>
+        <v>215</v>
       </c>
       <c r="C159" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D159" t="n">
-        <v>42.38</v>
+        <v>42.34</v>
       </c>
       <c r="E159" t="n">
-        <v>0.007</v>
+        <v>0.003</v>
       </c>
       <c r="F159" t="n">
         <v>0.25</v>
@@ -3625,16 +3625,16 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
+        <v>216</v>
+      </c>
+      <c r="C160" t="n">
         <v>215</v>
-      </c>
-      <c r="C160" t="n">
-        <v>61</v>
       </c>
       <c r="D160" t="n">
         <v>42.34</v>
       </c>
       <c r="E160" t="n">
-        <v>0.01</v>
+        <v>0.002</v>
       </c>
       <c r="F160" t="n">
         <v>0.25</v>
@@ -3645,16 +3645,16 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>216</v>
+        <v>65</v>
       </c>
       <c r="C161" t="n">
-        <v>215</v>
+        <v>62</v>
       </c>
       <c r="D161" t="n">
-        <v>42.34</v>
+        <v>49.42</v>
       </c>
       <c r="E161" t="n">
-        <v>0.006</v>
+        <v>0.004</v>
       </c>
       <c r="F161" t="n">
         <v>0.25</v>
@@ -3665,16 +3665,16 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C162" t="n">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D162" t="n">
-        <v>49.42</v>
+        <v>36.53</v>
       </c>
       <c r="E162" t="n">
-        <v>0.014</v>
+        <v>0.006</v>
       </c>
       <c r="F162" t="n">
         <v>0.25</v>
@@ -3685,16 +3685,16 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C163" t="n">
-        <v>70</v>
+        <v>217</v>
       </c>
       <c r="D163" t="n">
-        <v>36.53</v>
+        <v>34.33</v>
       </c>
       <c r="E163" t="n">
-        <v>0.024</v>
+        <v>0.007</v>
       </c>
       <c r="F163" t="n">
         <v>0.25</v>
@@ -3705,16 +3705,16 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>63</v>
+        <v>217</v>
       </c>
       <c r="C164" t="n">
-        <v>217</v>
+        <v>66</v>
       </c>
       <c r="D164" t="n">
         <v>34.33</v>
       </c>
       <c r="E164" t="n">
-        <v>0.024</v>
+        <v>0.008</v>
       </c>
       <c r="F164" t="n">
         <v>0.25</v>
@@ -3725,16 +3725,16 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C165" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D165" t="n">
-        <v>34.33</v>
+        <v>44.78</v>
       </c>
       <c r="E165" t="n">
-        <v>0.03</v>
+        <v>0.001</v>
       </c>
       <c r="F165" t="n">
         <v>0.25</v>
@@ -3745,16 +3745,16 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C166" t="n">
         <v>65</v>
       </c>
       <c r="D166" t="n">
-        <v>44.78</v>
+        <v>37.7</v>
       </c>
       <c r="E166" t="n">
-        <v>0.006</v>
+        <v>0.001</v>
       </c>
       <c r="F166" t="n">
         <v>0.25</v>
@@ -3768,13 +3768,13 @@
         <v>219</v>
       </c>
       <c r="C167" t="n">
-        <v>65</v>
+        <v>220</v>
       </c>
       <c r="D167" t="n">
         <v>37.7</v>
       </c>
       <c r="E167" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="F167" t="n">
         <v>0.25</v>
@@ -3788,13 +3788,13 @@
         <v>220</v>
       </c>
       <c r="C168" t="n">
-        <v>219</v>
+        <v>67</v>
       </c>
       <c r="D168" t="n">
         <v>37.7</v>
       </c>
       <c r="E168" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="F168" t="n">
         <v>0.25</v>
@@ -3805,16 +3805,16 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C169" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D169" t="n">
-        <v>37.7</v>
+        <v>36.57</v>
       </c>
       <c r="E169" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="F169" t="n">
         <v>0.25</v>
@@ -3828,13 +3828,13 @@
         <v>221</v>
       </c>
       <c r="C170" t="n">
-        <v>65</v>
+        <v>222</v>
       </c>
       <c r="D170" t="n">
         <v>36.57</v>
       </c>
       <c r="E170" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="F170" t="n">
         <v>0.25</v>
@@ -3848,13 +3848,13 @@
         <v>222</v>
       </c>
       <c r="C171" t="n">
-        <v>221</v>
+        <v>76</v>
       </c>
       <c r="D171" t="n">
         <v>36.57</v>
       </c>
       <c r="E171" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="F171" t="n">
         <v>0.25</v>
@@ -3865,19 +3865,19 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>222</v>
+        <v>66</v>
       </c>
       <c r="C172" t="n">
-        <v>76</v>
+        <v>223</v>
       </c>
       <c r="D172" t="n">
-        <v>36.57</v>
+        <v>34.94</v>
       </c>
       <c r="E172" t="n">
-        <v>0.003</v>
+        <v>0.301</v>
       </c>
       <c r="F172" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="173">
@@ -3885,19 +3885,19 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>66</v>
+        <v>223</v>
       </c>
       <c r="C173" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D173" t="n">
         <v>34.94</v>
       </c>
       <c r="E173" t="n">
-        <v>1.099</v>
+        <v>0.299</v>
       </c>
       <c r="F173" t="n">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="174">
@@ -3905,19 +3905,19 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C174" t="n">
-        <v>224</v>
+        <v>70</v>
       </c>
       <c r="D174" t="n">
         <v>34.94</v>
       </c>
       <c r="E174" t="n">
-        <v>1.09</v>
+        <v>0.296</v>
       </c>
       <c r="F174" t="n">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="175">
@@ -3925,19 +3925,19 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>224</v>
+        <v>67</v>
       </c>
       <c r="C175" t="n">
-        <v>70</v>
+        <v>225</v>
       </c>
       <c r="D175" t="n">
-        <v>34.94</v>
+        <v>45.76</v>
       </c>
       <c r="E175" t="n">
-        <v>1.08</v>
+        <v>0.193</v>
       </c>
       <c r="F175" t="n">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="176">
@@ -3945,19 +3945,19 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>67</v>
+        <v>225</v>
       </c>
       <c r="C176" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D176" t="n">
         <v>45.76</v>
       </c>
       <c r="E176" t="n">
-        <v>0.701</v>
+        <v>0.195</v>
       </c>
       <c r="F176" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="177">
@@ -3965,19 +3965,19 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C177" t="n">
-        <v>226</v>
+        <v>57</v>
       </c>
       <c r="D177" t="n">
         <v>45.76</v>
       </c>
       <c r="E177" t="n">
-        <v>0.707</v>
+        <v>0.196</v>
       </c>
       <c r="F177" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="178">
@@ -3985,19 +3985,19 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C178" t="n">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D178" t="n">
-        <v>45.76</v>
+        <v>49.3</v>
       </c>
       <c r="E178" t="n">
-        <v>0.713</v>
+        <v>0.006</v>
       </c>
       <c r="F178" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="179">
@@ -4005,16 +4005,16 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
+        <v>228</v>
+      </c>
+      <c r="C179" t="n">
         <v>227</v>
-      </c>
-      <c r="C179" t="n">
-        <v>67</v>
       </c>
       <c r="D179" t="n">
         <v>49.3</v>
       </c>
       <c r="E179" t="n">
-        <v>0.024</v>
+        <v>0.005</v>
       </c>
       <c r="F179" t="n">
         <v>0.25</v>
@@ -4025,16 +4025,16 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
+        <v>119</v>
+      </c>
+      <c r="C180" t="n">
         <v>228</v>
-      </c>
-      <c r="C180" t="n">
-        <v>227</v>
       </c>
       <c r="D180" t="n">
         <v>49.3</v>
       </c>
       <c r="E180" t="n">
-        <v>0.02</v>
+        <v>0.004</v>
       </c>
       <c r="F180" t="n">
         <v>0.25</v>
@@ -4045,16 +4045,16 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>119</v>
+        <v>229</v>
       </c>
       <c r="C181" t="n">
-        <v>228</v>
+        <v>67</v>
       </c>
       <c r="D181" t="n">
-        <v>49.3</v>
+        <v>35.84</v>
       </c>
       <c r="E181" t="n">
-        <v>0.013</v>
+        <v>0.003</v>
       </c>
       <c r="F181" t="n">
         <v>0.25</v>
@@ -4065,16 +4065,16 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
+        <v>230</v>
+      </c>
+      <c r="C182" t="n">
         <v>229</v>
-      </c>
-      <c r="C182" t="n">
-        <v>67</v>
       </c>
       <c r="D182" t="n">
         <v>35.84</v>
       </c>
       <c r="E182" t="n">
-        <v>0.01</v>
+        <v>0.002</v>
       </c>
       <c r="F182" t="n">
         <v>0.25</v>
@@ -4085,16 +4085,16 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C183" t="n">
-        <v>229</v>
+        <v>67</v>
       </c>
       <c r="D183" t="n">
-        <v>35.84</v>
+        <v>41.41</v>
       </c>
       <c r="E183" t="n">
-        <v>0.006</v>
+        <v>0.033</v>
       </c>
       <c r="F183" t="n">
         <v>0.25</v>
@@ -4105,19 +4105,19 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
+        <v>71</v>
+      </c>
+      <c r="C184" t="n">
         <v>231</v>
-      </c>
-      <c r="C184" t="n">
-        <v>67</v>
       </c>
       <c r="D184" t="n">
         <v>41.41</v>
       </c>
       <c r="E184" t="n">
-        <v>0.12</v>
+        <v>0.032</v>
       </c>
       <c r="F184" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="185">
@@ -4125,16 +4125,16 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>71</v>
+        <v>232</v>
       </c>
       <c r="C185" t="n">
-        <v>231</v>
+        <v>67</v>
       </c>
       <c r="D185" t="n">
-        <v>41.41</v>
+        <v>39.97</v>
       </c>
       <c r="E185" t="n">
-        <v>0.116</v>
+        <v>0.149</v>
       </c>
       <c r="F185" t="n">
         <v>0.5</v>
@@ -4145,19 +4145,19 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
+        <v>233</v>
+      </c>
+      <c r="C186" t="n">
         <v>232</v>
-      </c>
-      <c r="C186" t="n">
-        <v>67</v>
       </c>
       <c r="D186" t="n">
         <v>39.97</v>
       </c>
       <c r="E186" t="n">
-        <v>0.541</v>
+        <v>0.147</v>
       </c>
       <c r="F186" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="187">
@@ -4165,19 +4165,19 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
+        <v>234</v>
+      </c>
+      <c r="C187" t="n">
         <v>233</v>
-      </c>
-      <c r="C187" t="n">
-        <v>232</v>
       </c>
       <c r="D187" t="n">
         <v>39.97</v>
       </c>
       <c r="E187" t="n">
-        <v>0.536</v>
+        <v>0.145</v>
       </c>
       <c r="F187" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="188">
@@ -4185,19 +4185,19 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
+        <v>76</v>
+      </c>
+      <c r="C188" t="n">
         <v>234</v>
-      </c>
-      <c r="C188" t="n">
-        <v>233</v>
       </c>
       <c r="D188" t="n">
         <v>39.97</v>
       </c>
       <c r="E188" t="n">
-        <v>0.527</v>
+        <v>0.143</v>
       </c>
       <c r="F188" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="189">
@@ -4205,19 +4205,19 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C189" t="n">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D189" t="n">
-        <v>39.97</v>
+        <v>33.55</v>
       </c>
       <c r="E189" t="n">
-        <v>0.521</v>
+        <v>0.003</v>
       </c>
       <c r="F189" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="190">
@@ -4225,16 +4225,16 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>68</v>
+        <v>235</v>
       </c>
       <c r="C190" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D190" t="n">
         <v>33.55</v>
       </c>
       <c r="E190" t="n">
-        <v>0.011</v>
+        <v>0.005</v>
       </c>
       <c r="F190" t="n">
         <v>0.25</v>
@@ -4245,16 +4245,16 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C191" t="n">
-        <v>236</v>
+        <v>69</v>
       </c>
       <c r="D191" t="n">
         <v>33.55</v>
       </c>
       <c r="E191" t="n">
-        <v>0.02</v>
+        <v>0.006</v>
       </c>
       <c r="F191" t="n">
         <v>0.25</v>
@@ -4265,16 +4265,16 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>236</v>
+        <v>69</v>
       </c>
       <c r="C192" t="n">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D192" t="n">
-        <v>33.55</v>
+        <v>46.73</v>
       </c>
       <c r="E192" t="n">
-        <v>0.024</v>
+        <v>0.008</v>
       </c>
       <c r="F192" t="n">
         <v>0.25</v>
@@ -4285,19 +4285,19 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C193" t="n">
-        <v>73</v>
+        <v>237</v>
       </c>
       <c r="D193" t="n">
-        <v>46.73</v>
+        <v>41.71</v>
       </c>
       <c r="E193" t="n">
-        <v>0.028</v>
+        <v>0.285</v>
       </c>
       <c r="F193" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="194">
@@ -4305,19 +4305,19 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>70</v>
+        <v>237</v>
       </c>
       <c r="C194" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D194" t="n">
         <v>41.71</v>
       </c>
       <c r="E194" t="n">
-        <v>1.04</v>
+        <v>0.283</v>
       </c>
       <c r="F194" t="n">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="195">
@@ -4325,19 +4325,19 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C195" t="n">
-        <v>238</v>
+        <v>61</v>
       </c>
       <c r="D195" t="n">
         <v>41.71</v>
       </c>
       <c r="E195" t="n">
-        <v>1.033</v>
+        <v>0.281</v>
       </c>
       <c r="F195" t="n">
-        <v>1.25</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="196">
@@ -4345,19 +4345,19 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>238</v>
+        <v>72</v>
       </c>
       <c r="C196" t="n">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D196" t="n">
-        <v>41.71</v>
+        <v>35.23</v>
       </c>
       <c r="E196" t="n">
-        <v>1.026</v>
+        <v>0.003</v>
       </c>
       <c r="F196" t="n">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="197">
@@ -4365,16 +4365,16 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>72</v>
+        <v>239</v>
       </c>
       <c r="C197" t="n">
         <v>71</v>
       </c>
       <c r="D197" t="n">
-        <v>35.23</v>
+        <v>49.94</v>
       </c>
       <c r="E197" t="n">
-        <v>0.011</v>
+        <v>0.027</v>
       </c>
       <c r="F197" t="n">
         <v>0.25</v>
@@ -4385,19 +4385,19 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
+        <v>240</v>
+      </c>
+      <c r="C198" t="n">
         <v>239</v>
-      </c>
-      <c r="C198" t="n">
-        <v>71</v>
       </c>
       <c r="D198" t="n">
         <v>49.94</v>
       </c>
       <c r="E198" t="n">
-        <v>0.099</v>
+        <v>0.026</v>
       </c>
       <c r="F198" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="199">
@@ -4405,19 +4405,19 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
+        <v>73</v>
+      </c>
+      <c r="C199" t="n">
         <v>240</v>
-      </c>
-      <c r="C199" t="n">
-        <v>239</v>
       </c>
       <c r="D199" t="n">
         <v>49.94</v>
       </c>
       <c r="E199" t="n">
-        <v>0.094</v>
+        <v>0.023</v>
       </c>
       <c r="F199" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="200">
@@ -4425,19 +4425,19 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>73</v>
+        <v>241</v>
       </c>
       <c r="C200" t="n">
-        <v>240</v>
+        <v>86</v>
       </c>
       <c r="D200" t="n">
-        <v>49.94</v>
+        <v>26.82</v>
       </c>
       <c r="E200" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.001</v>
       </c>
       <c r="F200" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="201">
@@ -4445,16 +4445,16 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C201" t="n">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D201" t="n">
-        <v>26.82</v>
+        <v>27.04</v>
       </c>
       <c r="E201" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
       <c r="F201" t="n">
         <v>0.25</v>
@@ -4465,16 +4465,16 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
+        <v>120</v>
+      </c>
+      <c r="C202" t="n">
         <v>242</v>
-      </c>
-      <c r="C202" t="n">
-        <v>72</v>
       </c>
       <c r="D202" t="n">
         <v>27.04</v>
       </c>
       <c r="E202" t="n">
-        <v>0.008</v>
+        <v>0.002</v>
       </c>
       <c r="F202" t="n">
         <v>0.25</v>
@@ -4485,16 +4485,16 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>120</v>
+        <v>243</v>
       </c>
       <c r="C203" t="n">
-        <v>242</v>
+        <v>73</v>
       </c>
       <c r="D203" t="n">
-        <v>27.04</v>
+        <v>46.78</v>
       </c>
       <c r="E203" t="n">
-        <v>0.006</v>
+        <v>0.015</v>
       </c>
       <c r="F203" t="n">
         <v>0.25</v>
@@ -4505,19 +4505,19 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
+        <v>244</v>
+      </c>
+      <c r="C204" t="n">
         <v>243</v>
-      </c>
-      <c r="C204" t="n">
-        <v>73</v>
       </c>
       <c r="D204" t="n">
         <v>46.78</v>
       </c>
       <c r="E204" t="n">
-        <v>0.054</v>
+        <v>0.012</v>
       </c>
       <c r="F204" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="205">
@@ -4525,19 +4525,19 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
+        <v>245</v>
+      </c>
+      <c r="C205" t="n">
         <v>244</v>
-      </c>
-      <c r="C205" t="n">
-        <v>243</v>
       </c>
       <c r="D205" t="n">
         <v>46.78</v>
       </c>
       <c r="E205" t="n">
-        <v>0.057</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="F205" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="206">
@@ -4545,16 +4545,16 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
+        <v>74</v>
+      </c>
+      <c r="C206" t="n">
         <v>245</v>
-      </c>
-      <c r="C206" t="n">
-        <v>244</v>
       </c>
       <c r="D206" t="n">
         <v>46.78</v>
       </c>
       <c r="E206" t="n">
-        <v>0.034</v>
+        <v>0.006</v>
       </c>
       <c r="F206" t="n">
         <v>0.25</v>
@@ -4565,16 +4565,16 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>74</v>
+        <v>246</v>
       </c>
       <c r="C207" t="n">
-        <v>245</v>
+        <v>86</v>
       </c>
       <c r="D207" t="n">
-        <v>46.78</v>
+        <v>32.3</v>
       </c>
       <c r="E207" t="n">
-        <v>0.023</v>
+        <v>0.001</v>
       </c>
       <c r="F207" t="n">
         <v>0.25</v>
@@ -4585,16 +4585,16 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>246</v>
+        <v>75</v>
       </c>
       <c r="C208" t="n">
-        <v>86</v>
+        <v>247</v>
       </c>
       <c r="D208" t="n">
-        <v>32.3</v>
+        <v>41.12</v>
       </c>
       <c r="E208" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="F208" t="n">
         <v>0.25</v>
@@ -4605,16 +4605,16 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>75</v>
+        <v>247</v>
       </c>
       <c r="C209" t="n">
-        <v>247</v>
+        <v>88</v>
       </c>
       <c r="D209" t="n">
         <v>41.12</v>
       </c>
       <c r="E209" t="n">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="F209" t="n">
         <v>0.25</v>
@@ -4625,16 +4625,16 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C210" t="n">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D210" t="n">
-        <v>41.12</v>
+        <v>48.5</v>
       </c>
       <c r="E210" t="n">
-        <v>0.011</v>
+        <v>0.001</v>
       </c>
       <c r="F210" t="n">
         <v>0.25</v>
@@ -4645,16 +4645,16 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
+        <v>121</v>
+      </c>
+      <c r="C211" t="n">
         <v>248</v>
-      </c>
-      <c r="C211" t="n">
-        <v>76</v>
       </c>
       <c r="D211" t="n">
         <v>48.5</v>
       </c>
       <c r="E211" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="F211" t="n">
         <v>0.25</v>
@@ -4665,19 +4665,19 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>121</v>
+        <v>249</v>
       </c>
       <c r="C212" t="n">
-        <v>248</v>
+        <v>76</v>
       </c>
       <c r="D212" t="n">
-        <v>48.5</v>
+        <v>47.16</v>
       </c>
       <c r="E212" t="n">
-        <v>0.002</v>
+        <v>0.068</v>
       </c>
       <c r="F212" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="213">
@@ -4685,19 +4685,19 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
+        <v>250</v>
+      </c>
+      <c r="C213" t="n">
         <v>249</v>
-      </c>
-      <c r="C213" t="n">
-        <v>76</v>
       </c>
       <c r="D213" t="n">
         <v>47.16</v>
       </c>
       <c r="E213" t="n">
-        <v>0.248</v>
+        <v>0.066</v>
       </c>
       <c r="F213" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="214">
@@ -4705,19 +4705,19 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
+        <v>251</v>
+      </c>
+      <c r="C214" t="n">
         <v>250</v>
-      </c>
-      <c r="C214" t="n">
-        <v>249</v>
       </c>
       <c r="D214" t="n">
         <v>47.16</v>
       </c>
       <c r="E214" t="n">
-        <v>0.24</v>
+        <v>0.063</v>
       </c>
       <c r="F214" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="215">
@@ -4725,19 +4725,19 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
+        <v>252</v>
+      </c>
+      <c r="C215" t="n">
         <v>251</v>
-      </c>
-      <c r="C215" t="n">
-        <v>250</v>
       </c>
       <c r="D215" t="n">
         <v>47.16</v>
       </c>
       <c r="E215" t="n">
-        <v>0.229</v>
+        <v>0.06</v>
       </c>
       <c r="F215" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="216">
@@ -4745,19 +4745,19 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
+        <v>253</v>
+      </c>
+      <c r="C216" t="n">
         <v>252</v>
-      </c>
-      <c r="C216" t="n">
-        <v>251</v>
       </c>
       <c r="D216" t="n">
         <v>47.16</v>
       </c>
       <c r="E216" t="n">
-        <v>0.219</v>
+        <v>0.058</v>
       </c>
       <c r="F216" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="217">
@@ -4765,19 +4765,19 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
+        <v>80</v>
+      </c>
+      <c r="C217" t="n">
         <v>253</v>
-      </c>
-      <c r="C217" t="n">
-        <v>252</v>
       </c>
       <c r="D217" t="n">
         <v>47.16</v>
       </c>
       <c r="E217" t="n">
-        <v>0.21</v>
+        <v>0.055</v>
       </c>
       <c r="F217" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="218">
@@ -4785,19 +4785,19 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>80</v>
+        <v>254</v>
       </c>
       <c r="C218" t="n">
-        <v>253</v>
+        <v>76</v>
       </c>
       <c r="D218" t="n">
-        <v>47.16</v>
+        <v>46.12</v>
       </c>
       <c r="E218" t="n">
-        <v>0.202</v>
+        <v>0.01</v>
       </c>
       <c r="F218" t="n">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="219">
@@ -4805,16 +4805,16 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
+        <v>255</v>
+      </c>
+      <c r="C219" t="n">
         <v>254</v>
-      </c>
-      <c r="C219" t="n">
-        <v>76</v>
       </c>
       <c r="D219" t="n">
         <v>46.12</v>
       </c>
       <c r="E219" t="n">
-        <v>0.036</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="F219" t="n">
         <v>0.25</v>
@@ -4825,16 +4825,16 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
+        <v>82</v>
+      </c>
+      <c r="C220" t="n">
         <v>255</v>
-      </c>
-      <c r="C220" t="n">
-        <v>254</v>
       </c>
       <c r="D220" t="n">
         <v>46.12</v>
       </c>
       <c r="E220" t="n">
-        <v>0.034</v>
+        <v>0.008</v>
       </c>
       <c r="F220" t="n">
         <v>0.25</v>
@@ -4845,19 +4845,19 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>82</v>
+        <v>256</v>
       </c>
       <c r="C221" t="n">
-        <v>255</v>
+        <v>76</v>
       </c>
       <c r="D221" t="n">
-        <v>46.12</v>
+        <v>41.56</v>
       </c>
       <c r="E221" t="n">
-        <v>0.029</v>
+        <v>0.214</v>
       </c>
       <c r="F221" t="n">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="222">
@@ -4865,19 +4865,19 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
+        <v>83</v>
+      </c>
+      <c r="C222" t="n">
         <v>256</v>
-      </c>
-      <c r="C222" t="n">
-        <v>76</v>
       </c>
       <c r="D222" t="n">
         <v>41.56</v>
       </c>
       <c r="E222" t="n">
-        <v>0.781</v>
+        <v>0.217</v>
       </c>
       <c r="F222" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="223">
@@ -4885,19 +4885,19 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C223" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D223" t="n">
-        <v>41.56</v>
+        <v>25.1</v>
       </c>
       <c r="E223" t="n">
-        <v>0.789</v>
+        <v>0.013</v>
       </c>
       <c r="F223" t="n">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="224">
@@ -4905,16 +4905,16 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>77</v>
+        <v>257</v>
       </c>
       <c r="C224" t="n">
-        <v>257</v>
+        <v>79</v>
       </c>
       <c r="D224" t="n">
         <v>25.1</v>
       </c>
       <c r="E224" t="n">
-        <v>0.046</v>
+        <v>0.014</v>
       </c>
       <c r="F224" t="n">
         <v>0.25</v>
@@ -4925,19 +4925,19 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>257</v>
+        <v>78</v>
       </c>
       <c r="C225" t="n">
         <v>79</v>
       </c>
       <c r="D225" t="n">
-        <v>25.1</v>
+        <v>46.49</v>
       </c>
       <c r="E225" t="n">
-        <v>0.049</v>
+        <v>0.004</v>
       </c>
       <c r="F225" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="226">
@@ -4945,16 +4945,16 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C226" t="n">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="D226" t="n">
-        <v>46.49</v>
+        <v>27.08</v>
       </c>
       <c r="E226" t="n">
-        <v>0.016</v>
+        <v>0.019</v>
       </c>
       <c r="F226" t="n">
         <v>0.25</v>
@@ -4965,19 +4965,19 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="C227" t="n">
-        <v>258</v>
+        <v>81</v>
       </c>
       <c r="D227" t="n">
         <v>27.08</v>
       </c>
       <c r="E227" t="n">
-        <v>0.068</v>
+        <v>0.02</v>
       </c>
       <c r="F227" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="228">
@@ -4985,19 +4985,19 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C228" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D228" t="n">
-        <v>27.08</v>
+        <v>31.74</v>
       </c>
       <c r="E228" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.019</v>
       </c>
       <c r="F228" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="229">
@@ -5005,19 +5005,19 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
+        <v>107</v>
+      </c>
+      <c r="C229" t="n">
         <v>259</v>
-      </c>
-      <c r="C229" t="n">
-        <v>80</v>
       </c>
       <c r="D229" t="n">
         <v>31.74</v>
       </c>
       <c r="E229" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.018</v>
       </c>
       <c r="F229" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="230">
@@ -5025,19 +5025,19 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>107</v>
+        <v>260</v>
       </c>
       <c r="C230" t="n">
-        <v>259</v>
+        <v>80</v>
       </c>
       <c r="D230" t="n">
-        <v>31.74</v>
+        <v>44.3</v>
       </c>
       <c r="E230" t="n">
-        <v>0.065</v>
+        <v>0.006</v>
       </c>
       <c r="F230" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="231">
@@ -5045,16 +5045,16 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
+        <v>88</v>
+      </c>
+      <c r="C231" t="n">
         <v>260</v>
-      </c>
-      <c r="C231" t="n">
-        <v>80</v>
       </c>
       <c r="D231" t="n">
         <v>44.3</v>
       </c>
       <c r="E231" t="n">
-        <v>0.023</v>
+        <v>0.005</v>
       </c>
       <c r="F231" t="n">
         <v>0.25</v>
@@ -5065,16 +5065,16 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>88</v>
+        <v>261</v>
       </c>
       <c r="C232" t="n">
-        <v>260</v>
+        <v>80</v>
       </c>
       <c r="D232" t="n">
-        <v>44.3</v>
+        <v>36.36</v>
       </c>
       <c r="E232" t="n">
-        <v>0.017</v>
+        <v>0.029</v>
       </c>
       <c r="F232" t="n">
         <v>0.25</v>
@@ -5085,19 +5085,19 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
+        <v>95</v>
+      </c>
+      <c r="C233" t="n">
         <v>261</v>
-      </c>
-      <c r="C233" t="n">
-        <v>80</v>
       </c>
       <c r="D233" t="n">
         <v>36.36</v>
       </c>
       <c r="E233" t="n">
-        <v>0.105</v>
+        <v>0.028</v>
       </c>
       <c r="F233" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="234">
@@ -5105,19 +5105,19 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="C234" t="n">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D234" t="n">
-        <v>36.36</v>
+        <v>44.22</v>
       </c>
       <c r="E234" t="n">
-        <v>0.101</v>
+        <v>0.04</v>
       </c>
       <c r="F234" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="235">
@@ -5125,19 +5125,19 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>81</v>
+        <v>262</v>
       </c>
       <c r="C235" t="n">
-        <v>262</v>
+        <v>84</v>
       </c>
       <c r="D235" t="n">
         <v>44.22</v>
       </c>
       <c r="E235" t="n">
-        <v>0.145</v>
+        <v>0.042</v>
       </c>
       <c r="F235" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="236">
@@ -5145,19 +5145,19 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C236" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D236" t="n">
-        <v>44.22</v>
+        <v>31.58</v>
       </c>
       <c r="E236" t="n">
-        <v>0.153</v>
+        <v>0.019</v>
       </c>
       <c r="F236" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="237">
@@ -5165,19 +5165,19 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
+        <v>85</v>
+      </c>
+      <c r="C237" t="n">
         <v>263</v>
-      </c>
-      <c r="C237" t="n">
-        <v>81</v>
       </c>
       <c r="D237" t="n">
         <v>31.58</v>
       </c>
       <c r="E237" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.018</v>
       </c>
       <c r="F237" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="238">
@@ -5185,19 +5185,19 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C238" t="n">
-        <v>263</v>
+        <v>82</v>
       </c>
       <c r="D238" t="n">
-        <v>31.58</v>
+        <v>36.26</v>
       </c>
       <c r="E238" t="n">
-        <v>0.066</v>
+        <v>0.004</v>
       </c>
       <c r="F238" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="239">
@@ -5205,16 +5205,16 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>93</v>
+        <v>264</v>
       </c>
       <c r="C239" t="n">
         <v>82</v>
       </c>
       <c r="D239" t="n">
-        <v>36.26</v>
+        <v>28.06</v>
       </c>
       <c r="E239" t="n">
-        <v>0.015</v>
+        <v>0.003</v>
       </c>
       <c r="F239" t="n">
         <v>0.25</v>
@@ -5225,16 +5225,16 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
+        <v>94</v>
+      </c>
+      <c r="C240" t="n">
         <v>264</v>
-      </c>
-      <c r="C240" t="n">
-        <v>82</v>
       </c>
       <c r="D240" t="n">
         <v>28.06</v>
       </c>
       <c r="E240" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="F240" t="n">
         <v>0.25</v>
@@ -5245,19 +5245,19 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>94</v>
+        <v>265</v>
       </c>
       <c r="C241" t="n">
-        <v>264</v>
+        <v>83</v>
       </c>
       <c r="D241" t="n">
-        <v>28.06</v>
+        <v>33.44</v>
       </c>
       <c r="E241" t="n">
-        <v>0.005</v>
+        <v>0.219</v>
       </c>
       <c r="F241" t="n">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="242">
@@ -5265,19 +5265,19 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
+        <v>91</v>
+      </c>
+      <c r="C242" t="n">
         <v>265</v>
-      </c>
-      <c r="C242" t="n">
-        <v>83</v>
       </c>
       <c r="D242" t="n">
         <v>33.44</v>
       </c>
       <c r="E242" t="n">
-        <v>0.8</v>
+        <v>0.222</v>
       </c>
       <c r="F242" t="n">
-        <v>1.25</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="243">
@@ -5285,19 +5285,19 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C243" t="n">
-        <v>265</v>
+        <v>89</v>
       </c>
       <c r="D243" t="n">
-        <v>33.44</v>
+        <v>44.37</v>
       </c>
       <c r="E243" t="n">
-        <v>0.8090000000000001</v>
+        <v>0.044</v>
       </c>
       <c r="F243" t="n">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="244">
@@ -5305,19 +5305,19 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>84</v>
+        <v>266</v>
       </c>
       <c r="C244" t="n">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D244" t="n">
-        <v>44.37</v>
+        <v>41.87</v>
       </c>
       <c r="E244" t="n">
-        <v>0.159</v>
+        <v>0.017</v>
       </c>
       <c r="F244" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="245">
@@ -5325,19 +5325,19 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
+        <v>101</v>
+      </c>
+      <c r="C245" t="n">
         <v>266</v>
-      </c>
-      <c r="C245" t="n">
-        <v>85</v>
       </c>
       <c r="D245" t="n">
         <v>41.87</v>
       </c>
       <c r="E245" t="n">
-        <v>0.061</v>
+        <v>0.016</v>
       </c>
       <c r="F245" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="246">
@@ -5345,19 +5345,19 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="C246" t="n">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D246" t="n">
-        <v>41.87</v>
+        <v>41.59</v>
       </c>
       <c r="E246" t="n">
-        <v>0.057</v>
+        <v>0.004</v>
       </c>
       <c r="F246" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="247">
@@ -5365,16 +5365,16 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>86</v>
+        <v>267</v>
       </c>
       <c r="C247" t="n">
-        <v>267</v>
+        <v>87</v>
       </c>
       <c r="D247" t="n">
         <v>41.59</v>
       </c>
       <c r="E247" t="n">
-        <v>0.014</v>
+        <v>0.006</v>
       </c>
       <c r="F247" t="n">
         <v>0.25</v>
@@ -5385,16 +5385,16 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C248" t="n">
         <v>87</v>
       </c>
       <c r="D248" t="n">
-        <v>41.59</v>
+        <v>32.15</v>
       </c>
       <c r="E248" t="n">
-        <v>0.023</v>
+        <v>0.001</v>
       </c>
       <c r="F248" t="n">
         <v>0.25</v>
@@ -5405,16 +5405,16 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>268</v>
+        <v>87</v>
       </c>
       <c r="C249" t="n">
-        <v>87</v>
+        <v>269</v>
       </c>
       <c r="D249" t="n">
-        <v>32.15</v>
+        <v>39.61</v>
       </c>
       <c r="E249" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="F249" t="n">
         <v>0.25</v>
@@ -5425,16 +5425,16 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>87</v>
+        <v>269</v>
       </c>
       <c r="C250" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D250" t="n">
         <v>39.61</v>
       </c>
       <c r="E250" t="n">
-        <v>0.037</v>
+        <v>0.012</v>
       </c>
       <c r="F250" t="n">
         <v>0.25</v>
@@ -5445,19 +5445,19 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C251" t="n">
-        <v>270</v>
+        <v>95</v>
       </c>
       <c r="D251" t="n">
         <v>39.61</v>
       </c>
       <c r="E251" t="n">
-        <v>0.057</v>
+        <v>0.015</v>
       </c>
       <c r="F251" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="252">
@@ -5465,19 +5465,19 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C252" t="n">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D252" t="n">
-        <v>39.61</v>
+        <v>46.04</v>
       </c>
       <c r="E252" t="n">
-        <v>0.054</v>
+        <v>0.021</v>
       </c>
       <c r="F252" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="253">
@@ -5485,19 +5485,19 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
+        <v>272</v>
+      </c>
+      <c r="C253" t="n">
         <v>271</v>
-      </c>
-      <c r="C253" t="n">
-        <v>89</v>
       </c>
       <c r="D253" t="n">
         <v>46.04</v>
       </c>
       <c r="E253" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.018</v>
       </c>
       <c r="F253" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="254">
@@ -5505,19 +5505,19 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
+        <v>273</v>
+      </c>
+      <c r="C254" t="n">
         <v>272</v>
-      </c>
-      <c r="C254" t="n">
-        <v>271</v>
       </c>
       <c r="D254" t="n">
         <v>46.04</v>
       </c>
       <c r="E254" t="n">
-        <v>0.064</v>
+        <v>0.016</v>
       </c>
       <c r="F254" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="255">
@@ -5525,19 +5525,19 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
+        <v>90</v>
+      </c>
+      <c r="C255" t="n">
         <v>273</v>
-      </c>
-      <c r="C255" t="n">
-        <v>272</v>
       </c>
       <c r="D255" t="n">
         <v>46.04</v>
       </c>
       <c r="E255" t="n">
-        <v>0.055</v>
+        <v>0.013</v>
       </c>
       <c r="F255" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="256">
@@ -5545,19 +5545,19 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>90</v>
+        <v>274</v>
       </c>
       <c r="C256" t="n">
-        <v>273</v>
+        <v>89</v>
       </c>
       <c r="D256" t="n">
-        <v>46.04</v>
+        <v>38.42</v>
       </c>
       <c r="E256" t="n">
-        <v>0.058</v>
+        <v>0.301</v>
       </c>
       <c r="F256" t="n">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="257">
@@ -5568,16 +5568,16 @@
         <v>274</v>
       </c>
       <c r="C257" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D257" t="n">
         <v>38.42</v>
       </c>
       <c r="E257" t="n">
-        <v>1.097</v>
+        <v>0.299</v>
       </c>
       <c r="F257" t="n">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="258">
@@ -5585,19 +5585,19 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C258" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D258" t="n">
-        <v>38.42</v>
+        <v>41.84</v>
       </c>
       <c r="E258" t="n">
-        <v>1.092</v>
+        <v>0.319</v>
       </c>
       <c r="F258" t="n">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="259">
@@ -5605,19 +5605,19 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>89</v>
+        <v>275</v>
       </c>
       <c r="C259" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D259" t="n">
         <v>41.84</v>
       </c>
       <c r="E259" t="n">
-        <v>1.162</v>
+        <v>0.316</v>
       </c>
       <c r="F259" t="n">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="260">
@@ -5625,19 +5625,19 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C260" t="n">
-        <v>276</v>
+        <v>66</v>
       </c>
       <c r="D260" t="n">
         <v>41.84</v>
       </c>
       <c r="E260" t="n">
-        <v>1.152</v>
+        <v>0.313</v>
       </c>
       <c r="F260" t="n">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="261">
@@ -5645,19 +5645,19 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C261" t="n">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="D261" t="n">
-        <v>41.84</v>
+        <v>39.26</v>
       </c>
       <c r="E261" t="n">
-        <v>1.14</v>
+        <v>0.004</v>
       </c>
       <c r="F261" t="n">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="262">
@@ -5665,16 +5665,16 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
+        <v>278</v>
+      </c>
+      <c r="C262" t="n">
         <v>277</v>
-      </c>
-      <c r="C262" t="n">
-        <v>90</v>
       </c>
       <c r="D262" t="n">
         <v>39.26</v>
       </c>
       <c r="E262" t="n">
-        <v>0.011</v>
+        <v>0.002</v>
       </c>
       <c r="F262" t="n">
         <v>0.25</v>
@@ -5688,13 +5688,13 @@
         <v>278</v>
       </c>
       <c r="C263" t="n">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D263" t="n">
         <v>39.26</v>
       </c>
       <c r="E263" t="n">
-        <v>0.006</v>
+        <v>0.001</v>
       </c>
       <c r="F263" t="n">
         <v>0.25</v>
@@ -5708,13 +5708,13 @@
         <v>279</v>
       </c>
       <c r="C264" t="n">
-        <v>278</v>
+        <v>109</v>
       </c>
       <c r="D264" t="n">
         <v>39.26</v>
       </c>
       <c r="E264" t="n">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
       <c r="F264" t="n">
         <v>0.25</v>
@@ -5725,16 +5725,16 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C265" t="n">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D265" t="n">
-        <v>39.26</v>
+        <v>43.14</v>
       </c>
       <c r="E265" t="n">
-        <v>0.005</v>
+        <v>0.007</v>
       </c>
       <c r="F265" t="n">
         <v>0.25</v>
@@ -5745,16 +5745,16 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
+        <v>104</v>
+      </c>
+      <c r="C266" t="n">
         <v>280</v>
-      </c>
-      <c r="C266" t="n">
-        <v>90</v>
       </c>
       <c r="D266" t="n">
         <v>43.14</v>
       </c>
       <c r="E266" t="n">
-        <v>0.025</v>
+        <v>0.005</v>
       </c>
       <c r="F266" t="n">
         <v>0.25</v>
@@ -5765,19 +5765,19 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>104</v>
+        <v>281</v>
       </c>
       <c r="C267" t="n">
-        <v>280</v>
+        <v>91</v>
       </c>
       <c r="D267" t="n">
-        <v>43.14</v>
+        <v>49.87</v>
       </c>
       <c r="E267" t="n">
-        <v>0.019</v>
+        <v>0.054</v>
       </c>
       <c r="F267" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="268">
@@ -5785,19 +5785,19 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
+        <v>282</v>
+      </c>
+      <c r="C268" t="n">
         <v>281</v>
-      </c>
-      <c r="C268" t="n">
-        <v>91</v>
       </c>
       <c r="D268" t="n">
         <v>49.87</v>
       </c>
       <c r="E268" t="n">
-        <v>0.279</v>
+        <v>0.052</v>
       </c>
       <c r="F268" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="269">
@@ -5805,19 +5805,19 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
+        <v>283</v>
+      </c>
+      <c r="C269" t="n">
         <v>282</v>
-      </c>
-      <c r="C269" t="n">
-        <v>281</v>
       </c>
       <c r="D269" t="n">
         <v>49.87</v>
       </c>
       <c r="E269" t="n">
-        <v>0.273</v>
+        <v>0.05</v>
       </c>
       <c r="F269" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="270">
@@ -5825,19 +5825,19 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
+        <v>284</v>
+      </c>
+      <c r="C270" t="n">
         <v>283</v>
-      </c>
-      <c r="C270" t="n">
-        <v>282</v>
       </c>
       <c r="D270" t="n">
         <v>49.87</v>
       </c>
       <c r="E270" t="n">
-        <v>0.268</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="F270" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="271">
@@ -5845,19 +5845,19 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
+        <v>285</v>
+      </c>
+      <c r="C271" t="n">
         <v>284</v>
-      </c>
-      <c r="C271" t="n">
-        <v>283</v>
       </c>
       <c r="D271" t="n">
         <v>49.87</v>
       </c>
       <c r="E271" t="n">
-        <v>0.263</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="F271" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="272">
@@ -5865,19 +5865,19 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
+        <v>92</v>
+      </c>
+      <c r="C272" t="n">
         <v>285</v>
-      </c>
-      <c r="C272" t="n">
-        <v>284</v>
       </c>
       <c r="D272" t="n">
         <v>49.87</v>
       </c>
       <c r="E272" t="n">
-        <v>0.258</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F272" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="273">
@@ -5885,19 +5885,19 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
+        <v>286</v>
+      </c>
+      <c r="C273" t="n">
         <v>92</v>
       </c>
-      <c r="C273" t="n">
-        <v>285</v>
-      </c>
       <c r="D273" t="n">
-        <v>49.87</v>
+        <v>44.23</v>
       </c>
       <c r="E273" t="n">
-        <v>0.254</v>
+        <v>0.001</v>
       </c>
       <c r="F273" t="n">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="274">
@@ -5905,19 +5905,19 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
+        <v>111</v>
+      </c>
+      <c r="C274" t="n">
         <v>286</v>
-      </c>
-      <c r="C274" t="n">
-        <v>92</v>
       </c>
       <c r="D274" t="n">
         <v>44.23</v>
       </c>
       <c r="E274" t="n">
-        <v>0.078</v>
+        <v>0.02</v>
       </c>
       <c r="F274" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="275">
@@ -5925,19 +5925,19 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C275" t="n">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="D275" t="n">
-        <v>44.23</v>
+        <v>35.99</v>
       </c>
       <c r="E275" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.005</v>
       </c>
       <c r="F275" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="276">
@@ -5945,16 +5945,16 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
+        <v>115</v>
+      </c>
+      <c r="C276" t="n">
         <v>287</v>
-      </c>
-      <c r="C276" t="n">
-        <v>92</v>
       </c>
       <c r="D276" t="n">
         <v>35.99</v>
       </c>
       <c r="E276" t="n">
-        <v>0.018</v>
+        <v>0.003</v>
       </c>
       <c r="F276" t="n">
         <v>0.25</v>
@@ -5965,16 +5965,16 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>115</v>
+        <v>288</v>
       </c>
       <c r="C277" t="n">
-        <v>287</v>
+        <v>92</v>
       </c>
       <c r="D277" t="n">
-        <v>35.99</v>
+        <v>45.08</v>
       </c>
       <c r="E277" t="n">
-        <v>0.012</v>
+        <v>0.035</v>
       </c>
       <c r="F277" t="n">
         <v>0.25</v>
@@ -5985,19 +5985,19 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
+        <v>289</v>
+      </c>
+      <c r="C278" t="n">
         <v>288</v>
-      </c>
-      <c r="C278" t="n">
-        <v>92</v>
       </c>
       <c r="D278" t="n">
         <v>45.08</v>
       </c>
       <c r="E278" t="n">
-        <v>0.126</v>
+        <v>0.033</v>
       </c>
       <c r="F278" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="279">
@@ -6005,19 +6005,19 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
+        <v>109</v>
+      </c>
+      <c r="C279" t="n">
         <v>289</v>
-      </c>
-      <c r="C279" t="n">
-        <v>288</v>
       </c>
       <c r="D279" t="n">
         <v>45.08</v>
       </c>
       <c r="E279" t="n">
-        <v>0.119</v>
+        <v>0.031</v>
       </c>
       <c r="F279" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="280">
@@ -6025,19 +6025,19 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>109</v>
+        <v>290</v>
       </c>
       <c r="C280" t="n">
-        <v>289</v>
+        <v>92</v>
       </c>
       <c r="D280" t="n">
-        <v>45.08</v>
+        <v>33.54</v>
       </c>
       <c r="E280" t="n">
-        <v>0.114</v>
+        <v>0.003</v>
       </c>
       <c r="F280" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="281">
@@ -6045,16 +6045,16 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
+        <v>291</v>
+      </c>
+      <c r="C281" t="n">
         <v>290</v>
-      </c>
-      <c r="C281" t="n">
-        <v>92</v>
       </c>
       <c r="D281" t="n">
         <v>33.54</v>
       </c>
       <c r="E281" t="n">
-        <v>0.01</v>
+        <v>0.003</v>
       </c>
       <c r="F281" t="n">
         <v>0.25</v>
@@ -6065,16 +6065,16 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
+        <v>105</v>
+      </c>
+      <c r="C282" t="n">
         <v>291</v>
-      </c>
-      <c r="C282" t="n">
-        <v>290</v>
       </c>
       <c r="D282" t="n">
         <v>33.54</v>
       </c>
       <c r="E282" t="n">
-        <v>0.008</v>
+        <v>0.002</v>
       </c>
       <c r="F282" t="n">
         <v>0.25</v>
@@ -6085,16 +6085,16 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>105</v>
+        <v>292</v>
       </c>
       <c r="C283" t="n">
-        <v>291</v>
+        <v>93</v>
       </c>
       <c r="D283" t="n">
-        <v>33.54</v>
+        <v>28.03</v>
       </c>
       <c r="E283" t="n">
-        <v>0.006</v>
+        <v>0.003</v>
       </c>
       <c r="F283" t="n">
         <v>0.25</v>
@@ -6105,16 +6105,16 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
+        <v>96</v>
+      </c>
+      <c r="C284" t="n">
         <v>292</v>
-      </c>
-      <c r="C284" t="n">
-        <v>93</v>
       </c>
       <c r="D284" t="n">
         <v>28.03</v>
       </c>
       <c r="E284" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.001</v>
       </c>
       <c r="F284" t="n">
         <v>0.25</v>
@@ -6125,16 +6125,16 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C285" t="n">
-        <v>292</v>
+        <v>94</v>
       </c>
       <c r="D285" t="n">
-        <v>28.03</v>
+        <v>30.87</v>
       </c>
       <c r="E285" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="F285" t="n">
         <v>0.25</v>
@@ -6145,16 +6145,16 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>97</v>
+        <v>293</v>
       </c>
       <c r="C286" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D286" t="n">
-        <v>30.87</v>
+        <v>38.01</v>
       </c>
       <c r="E286" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
       <c r="F286" t="n">
         <v>0.25</v>
@@ -6165,16 +6165,16 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>293</v>
+        <v>97</v>
       </c>
       <c r="C287" t="n">
-        <v>95</v>
+        <v>294</v>
       </c>
       <c r="D287" t="n">
-        <v>38.01</v>
+        <v>26.56</v>
       </c>
       <c r="E287" t="n">
-        <v>0.008</v>
+        <v>0.001</v>
       </c>
       <c r="F287" t="n">
         <v>0.25</v>
@@ -6185,16 +6185,16 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>97</v>
+        <v>294</v>
       </c>
       <c r="C288" t="n">
-        <v>294</v>
+        <v>99</v>
       </c>
       <c r="D288" t="n">
         <v>26.56</v>
       </c>
       <c r="E288" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="F288" t="n">
         <v>0.25</v>
@@ -6205,16 +6205,16 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>294</v>
+        <v>98</v>
       </c>
       <c r="C289" t="n">
-        <v>99</v>
+        <v>295</v>
       </c>
       <c r="D289" t="n">
-        <v>26.56</v>
+        <v>26.72</v>
       </c>
       <c r="E289" t="n">
-        <v>0.006</v>
+        <v>0.001</v>
       </c>
       <c r="F289" t="n">
         <v>0.25</v>
@@ -6225,16 +6225,16 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>98</v>
+        <v>295</v>
       </c>
       <c r="C290" t="n">
-        <v>295</v>
+        <v>110</v>
       </c>
       <c r="D290" t="n">
         <v>26.72</v>
       </c>
       <c r="E290" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="F290" t="n">
         <v>0.25</v>
@@ -6245,16 +6245,16 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>295</v>
+        <v>110</v>
       </c>
       <c r="C291" t="n">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="D291" t="n">
-        <v>26.72</v>
+        <v>34.02</v>
       </c>
       <c r="E291" t="n">
-        <v>0.006</v>
+        <v>0.003</v>
       </c>
       <c r="F291" t="n">
         <v>0.25</v>
@@ -6265,16 +6265,16 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C292" t="n">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D292" t="n">
-        <v>34.02</v>
+        <v>48.26</v>
       </c>
       <c r="E292" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.005</v>
       </c>
       <c r="F292" t="n">
         <v>0.25</v>
@@ -6285,16 +6285,16 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C293" t="n">
-        <v>111</v>
+        <v>296</v>
       </c>
       <c r="D293" t="n">
-        <v>48.26</v>
+        <v>45.24</v>
       </c>
       <c r="E293" t="n">
-        <v>0.019</v>
+        <v>0.007</v>
       </c>
       <c r="F293" t="n">
         <v>0.25</v>
@@ -6305,16 +6305,16 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>100</v>
+        <v>296</v>
       </c>
       <c r="C294" t="n">
-        <v>296</v>
+        <v>101</v>
       </c>
       <c r="D294" t="n">
         <v>45.24</v>
       </c>
       <c r="E294" t="n">
-        <v>0.027</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="F294" t="n">
         <v>0.25</v>
@@ -6325,16 +6325,16 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C295" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D295" t="n">
-        <v>45.24</v>
+        <v>44.33</v>
       </c>
       <c r="E295" t="n">
-        <v>0.034</v>
+        <v>0.003</v>
       </c>
       <c r="F295" t="n">
         <v>0.25</v>
@@ -6345,16 +6345,16 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
+        <v>102</v>
+      </c>
+      <c r="C296" t="n">
         <v>297</v>
-      </c>
-      <c r="C296" t="n">
-        <v>100</v>
       </c>
       <c r="D296" t="n">
         <v>44.33</v>
       </c>
       <c r="E296" t="n">
-        <v>0.01</v>
+        <v>0.002</v>
       </c>
       <c r="F296" t="n">
         <v>0.25</v>
@@ -6365,16 +6365,16 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>102</v>
+        <v>298</v>
       </c>
       <c r="C297" t="n">
-        <v>297</v>
+        <v>100</v>
       </c>
       <c r="D297" t="n">
-        <v>44.33</v>
+        <v>37.13</v>
       </c>
       <c r="E297" t="n">
-        <v>0.006</v>
+        <v>0.003</v>
       </c>
       <c r="F297" t="n">
         <v>0.25</v>
@@ -6385,16 +6385,16 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
+        <v>299</v>
+      </c>
+      <c r="C298" t="n">
         <v>298</v>
-      </c>
-      <c r="C298" t="n">
-        <v>100</v>
       </c>
       <c r="D298" t="n">
         <v>37.13</v>
       </c>
       <c r="E298" t="n">
-        <v>0.01</v>
+        <v>0.002</v>
       </c>
       <c r="F298" t="n">
         <v>0.25</v>
@@ -6405,16 +6405,16 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
+        <v>103</v>
+      </c>
+      <c r="C299" t="n">
         <v>299</v>
-      </c>
-      <c r="C299" t="n">
-        <v>298</v>
       </c>
       <c r="D299" t="n">
         <v>37.13</v>
       </c>
       <c r="E299" t="n">
-        <v>0.007</v>
+        <v>0.001</v>
       </c>
       <c r="F299" t="n">
         <v>0.25</v>
@@ -6425,16 +6425,16 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>103</v>
+        <v>300</v>
       </c>
       <c r="C300" t="n">
-        <v>299</v>
+        <v>101</v>
       </c>
       <c r="D300" t="n">
-        <v>37.13</v>
+        <v>33.42</v>
       </c>
       <c r="E300" t="n">
-        <v>0.003</v>
+        <v>0.005</v>
       </c>
       <c r="F300" t="n">
         <v>0.25</v>
@@ -6445,16 +6445,16 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
+        <v>123</v>
+      </c>
+      <c r="C301" t="n">
         <v>300</v>
-      </c>
-      <c r="C301" t="n">
-        <v>101</v>
       </c>
       <c r="D301" t="n">
         <v>33.42</v>
       </c>
       <c r="E301" t="n">
-        <v>0.018</v>
+        <v>0.004</v>
       </c>
       <c r="F301" t="n">
         <v>0.25</v>
@@ -6465,16 +6465,16 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>123</v>
+        <v>301</v>
       </c>
       <c r="C302" t="n">
-        <v>300</v>
+        <v>104</v>
       </c>
       <c r="D302" t="n">
-        <v>33.42</v>
+        <v>36.32</v>
       </c>
       <c r="E302" t="n">
-        <v>0.014</v>
+        <v>0.002</v>
       </c>
       <c r="F302" t="n">
         <v>0.25</v>
@@ -6485,16 +6485,16 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
+        <v>302</v>
+      </c>
+      <c r="C303" t="n">
         <v>301</v>
-      </c>
-      <c r="C303" t="n">
-        <v>104</v>
       </c>
       <c r="D303" t="n">
         <v>36.32</v>
       </c>
       <c r="E303" t="n">
-        <v>0.007</v>
+        <v>0.001</v>
       </c>
       <c r="F303" t="n">
         <v>0.25</v>
@@ -6505,16 +6505,16 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C304" t="n">
-        <v>301</v>
+        <v>104</v>
       </c>
       <c r="D304" t="n">
-        <v>36.32</v>
+        <v>45.17</v>
       </c>
       <c r="E304" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="F304" t="n">
         <v>0.25</v>
@@ -6525,16 +6525,16 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
+        <v>304</v>
+      </c>
+      <c r="C305" t="n">
         <v>303</v>
-      </c>
-      <c r="C305" t="n">
-        <v>104</v>
       </c>
       <c r="D305" t="n">
         <v>45.17</v>
       </c>
       <c r="E305" t="n">
-        <v>0.01</v>
+        <v>0.002</v>
       </c>
       <c r="F305" t="n">
         <v>0.25</v>
@@ -6545,16 +6545,16 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
+        <v>106</v>
+      </c>
+      <c r="C306" t="n">
         <v>304</v>
-      </c>
-      <c r="C306" t="n">
-        <v>303</v>
       </c>
       <c r="D306" t="n">
         <v>45.17</v>
       </c>
       <c r="E306" t="n">
-        <v>0.007</v>
+        <v>0.001</v>
       </c>
       <c r="F306" t="n">
         <v>0.25</v>
@@ -6565,16 +6565,16 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C307" t="n">
-        <v>304</v>
+        <v>107</v>
       </c>
       <c r="D307" t="n">
-        <v>45.17</v>
+        <v>49.66</v>
       </c>
       <c r="E307" t="n">
-        <v>0.003</v>
+        <v>0.016</v>
       </c>
       <c r="F307" t="n">
         <v>0.25</v>
@@ -6585,16 +6585,16 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>305</v>
+        <v>108</v>
       </c>
       <c r="C308" t="n">
-        <v>105</v>
+        <v>306</v>
       </c>
       <c r="D308" t="n">
-        <v>25.02</v>
+        <v>30.28</v>
       </c>
       <c r="E308" t="n">
-        <v>0.001</v>
+        <v>0.012</v>
       </c>
       <c r="F308" t="n">
         <v>0.25</v>
@@ -6605,16 +6605,16 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>117</v>
+        <v>306</v>
       </c>
       <c r="C309" t="n">
-        <v>305</v>
+        <v>112</v>
       </c>
       <c r="D309" t="n">
-        <v>25.02</v>
+        <v>30.28</v>
       </c>
       <c r="E309" t="n">
-        <v>0.001</v>
+        <v>0.012</v>
       </c>
       <c r="F309" t="n">
         <v>0.25</v>
@@ -6625,19 +6625,19 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>111</v>
+        <v>307</v>
       </c>
       <c r="C310" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D310" t="n">
-        <v>49.66</v>
+        <v>48.47</v>
       </c>
       <c r="E310" t="n">
-        <v>0.057</v>
+        <v>0.027</v>
       </c>
       <c r="F310" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="311">
@@ -6645,19 +6645,19 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>108</v>
+        <v>308</v>
       </c>
       <c r="C311" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D311" t="n">
-        <v>30.28</v>
+        <v>48.47</v>
       </c>
       <c r="E311" t="n">
-        <v>0.055</v>
+        <v>0.023</v>
       </c>
       <c r="F311" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="312">
@@ -6665,19 +6665,19 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>306</v>
+        <v>112</v>
       </c>
       <c r="C312" t="n">
-        <v>112</v>
+        <v>308</v>
       </c>
       <c r="D312" t="n">
-        <v>30.28</v>
+        <v>48.47</v>
       </c>
       <c r="E312" t="n">
-        <v>0.057</v>
+        <v>0.021</v>
       </c>
       <c r="F312" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="313">
@@ -6685,19 +6685,19 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C313" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D313" t="n">
-        <v>48.47</v>
+        <v>33.41</v>
       </c>
       <c r="E313" t="n">
-        <v>0.099</v>
+        <v>0.006</v>
       </c>
       <c r="F313" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="314">
@@ -6705,19 +6705,19 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C314" t="n">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D314" t="n">
-        <v>48.47</v>
+        <v>33.41</v>
       </c>
       <c r="E314" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.005</v>
       </c>
       <c r="F314" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="315">
@@ -6725,19 +6725,19 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="C315" t="n">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D315" t="n">
-        <v>48.47</v>
+        <v>33.41</v>
       </c>
       <c r="E315" t="n">
-        <v>0.077</v>
+        <v>0.004</v>
       </c>
       <c r="F315" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="316">
@@ -6745,16 +6745,16 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C316" t="n">
         <v>111</v>
       </c>
       <c r="D316" t="n">
-        <v>33.41</v>
+        <v>38.25</v>
       </c>
       <c r="E316" t="n">
-        <v>0.02</v>
+        <v>0.004</v>
       </c>
       <c r="F316" t="n">
         <v>0.25</v>
@@ -6765,16 +6765,16 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C317" t="n">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D317" t="n">
-        <v>33.41</v>
+        <v>38.25</v>
       </c>
       <c r="E317" t="n">
-        <v>0.018</v>
+        <v>0.003</v>
       </c>
       <c r="F317" t="n">
         <v>0.25</v>
@@ -6785,16 +6785,16 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C318" t="n">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D318" t="n">
-        <v>33.41</v>
+        <v>38.25</v>
       </c>
       <c r="E318" t="n">
-        <v>0.015</v>
+        <v>0.002</v>
       </c>
       <c r="F318" t="n">
         <v>0.25</v>
@@ -6805,16 +6805,16 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>311</v>
+        <v>114</v>
       </c>
       <c r="C319" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D319" t="n">
-        <v>38.25</v>
+        <v>31.89</v>
       </c>
       <c r="E319" t="n">
-        <v>0.015</v>
+        <v>0.008</v>
       </c>
       <c r="F319" t="n">
         <v>0.25</v>
@@ -6825,16 +6825,16 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>312</v>
+        <v>113</v>
       </c>
       <c r="C320" t="n">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D320" t="n">
-        <v>38.25</v>
+        <v>44.65</v>
       </c>
       <c r="E320" t="n">
-        <v>0.011</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="F320" t="n">
         <v>0.25</v>
@@ -6845,16 +6845,16 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>118</v>
+        <v>313</v>
       </c>
       <c r="C321" t="n">
-        <v>312</v>
+        <v>108</v>
       </c>
       <c r="D321" t="n">
-        <v>38.25</v>
+        <v>44.65</v>
       </c>
       <c r="E321" t="n">
-        <v>0.006</v>
+        <v>0.011</v>
       </c>
       <c r="F321" t="n">
         <v>0.25</v>
@@ -6865,16 +6865,16 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
+        <v>314</v>
+      </c>
+      <c r="C322" t="n">
         <v>114</v>
       </c>
-      <c r="C322" t="n">
-        <v>112</v>
-      </c>
       <c r="D322" t="n">
-        <v>31.89</v>
+        <v>34.25</v>
       </c>
       <c r="E322" t="n">
-        <v>0.028</v>
+        <v>0.001</v>
       </c>
       <c r="F322" t="n">
         <v>0.25</v>
@@ -6885,16 +6885,16 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C323" t="n">
-        <v>313</v>
+        <v>115</v>
       </c>
       <c r="D323" t="n">
-        <v>44.65</v>
+        <v>44</v>
       </c>
       <c r="E323" t="n">
-        <v>0.031</v>
+        <v>0.001</v>
       </c>
       <c r="F323" t="n">
         <v>0.25</v>
@@ -6905,19 +6905,19 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>313</v>
+        <v>28</v>
       </c>
       <c r="C324" t="n">
-        <v>108</v>
+        <v>315</v>
       </c>
       <c r="D324" t="n">
-        <v>44.65</v>
+        <v>1</v>
       </c>
       <c r="E324" t="n">
-        <v>0.051</v>
+        <v>0</v>
       </c>
       <c r="F324" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="325">
@@ -6925,78 +6925,18 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C325" t="n">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="D325" t="n">
-        <v>34.25</v>
+        <v>1</v>
       </c>
       <c r="E325" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="F325" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" s="1" t="n">
-        <v>324</v>
-      </c>
-      <c r="B326" t="n">
-        <v>116</v>
-      </c>
-      <c r="C326" t="n">
-        <v>115</v>
-      </c>
-      <c r="D326" t="n">
-        <v>44</v>
-      </c>
-      <c r="E326" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="F326" t="n">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" s="1" t="n">
-        <v>325</v>
-      </c>
-      <c r="B327" t="n">
-        <v>28</v>
-      </c>
-      <c r="C327" t="n">
-        <v>315</v>
-      </c>
-      <c r="D327" t="n">
-        <v>1</v>
-      </c>
-      <c r="E327" t="n">
-        <v>0</v>
-      </c>
-      <c r="F327" t="n">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" s="1" t="n">
-        <v>326</v>
-      </c>
-      <c r="B328" t="n">
-        <v>316</v>
-      </c>
-      <c r="C328" t="n">
-        <v>89</v>
-      </c>
-      <c r="D328" t="n">
-        <v>1</v>
-      </c>
-      <c r="E328" t="n">
-        <v>0</v>
-      </c>
-      <c r="F328" t="n">
         <v>2.5</v>
       </c>
     </row>
